--- a/raw_data/20200818_saline/20200818_Sensor0_Test_44.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_44.xlsx
@@ -1,479 +1,895 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB27F59-4798-47BE-9DCD-4283CDE7032F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>38703.195796</v>
       </c>
@@ -481,256 +897,256 @@
         <v>10.750888</v>
       </c>
       <c r="C2" s="1">
-        <v>910.791000</v>
+        <v>910.79100000000005</v>
       </c>
       <c r="D2" s="1">
-        <v>-175.670000</v>
+        <v>-175.67</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>38713.373748</v>
+        <v>38713.373747999998</v>
       </c>
       <c r="G2" s="1">
         <v>10.753715</v>
       </c>
       <c r="H2" s="1">
-        <v>924.168000</v>
+        <v>924.16800000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-150.866000</v>
+        <v>-150.86600000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>38723.834328</v>
+        <v>38723.834327999997</v>
       </c>
       <c r="L2" s="1">
-        <v>10.756621</v>
+        <v>10.756621000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>944.602000</v>
+        <v>944.60199999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-111.444000</v>
+        <v>-111.444</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>38734.193806</v>
+        <v>38734.193806000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>10.759498</v>
+        <v>10.759498000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>951.501000</v>
+        <v>951.50099999999998</v>
       </c>
       <c r="S2" s="1">
-        <v>-98.991400</v>
+        <v>-98.991399999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>38744.446646</v>
+        <v>38744.446645999997</v>
       </c>
       <c r="V2" s="1">
-        <v>10.762346</v>
+        <v>10.762346000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>958.885000</v>
+        <v>958.88499999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-87.657300</v>
+        <v>-87.657300000000006</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>38754.579106</v>
+        <v>38754.579105999997</v>
       </c>
       <c r="AA2" s="1">
-        <v>10.765161</v>
+        <v>10.765161000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>967.346000</v>
+        <v>967.346</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.799000</v>
+        <v>-79.799000000000007</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>38765.497283</v>
+        <v>38765.497282999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>10.768194</v>
+        <v>10.768193999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>973.021000</v>
+        <v>973.02099999999996</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.918200</v>
+        <v>-79.918199999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>38775.942072</v>
+        <v>38775.942071999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>10.771095</v>
+        <v>10.771095000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>981.492000</v>
+        <v>981.49199999999996</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.986400</v>
+        <v>-87.986400000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>38786.574277</v>
       </c>
       <c r="AP2" s="1">
-        <v>10.774048</v>
+        <v>10.774048000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>990.962000</v>
+        <v>990.96199999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.052000</v>
+        <v>-103.05200000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>38797.602823</v>
+        <v>38797.602823000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>10.777112</v>
+        <v>10.777112000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1002.490000</v>
+        <v>1002.49</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.700000</v>
+        <v>-124.7</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>38808.807679</v>
+        <v>38808.807678999998</v>
       </c>
       <c r="AZ2" s="1">
         <v>10.780224</v>
       </c>
       <c r="BA2" s="1">
-        <v>1012.120000</v>
+        <v>1012.12</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.580000</v>
+        <v>-143.58000000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>38820.123198</v>
+        <v>38820.123198000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>10.783368</v>
+        <v>10.783367999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1057.340000</v>
+        <v>1057.3399999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.102000</v>
+        <v>-229.102</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>38831.439403</v>
+        <v>38831.439402999997</v>
       </c>
       <c r="BJ2" s="1">
-        <v>10.786511</v>
+        <v>10.786511000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1136.660000</v>
+        <v>1136.6600000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-366.789000</v>
+        <v>-366.78899999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>38842.796795</v>
+        <v>38842.796795000002</v>
       </c>
       <c r="BO2" s="1">
         <v>10.789666</v>
       </c>
       <c r="BP2" s="1">
-        <v>1268.350000</v>
+        <v>1268.3499999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-580.430000</v>
+        <v>-580.42999999999995</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>38853.117055</v>
+        <v>38853.117055000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>10.792533</v>
+        <v>10.792533000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1417.250000</v>
+        <v>1417.25</v>
       </c>
       <c r="BV2" s="1">
-        <v>-809.434000</v>
+        <v>-809.43399999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>38863.738881</v>
+        <v>38863.738880999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>10.795483</v>
+        <v>10.795483000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1580.380000</v>
+        <v>1580.38</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1048.540000</v>
+        <v>-1048.54</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>38874.704960</v>
+        <v>38874.704960000003</v>
       </c>
       <c r="CD2" s="1">
         <v>10.798529</v>
       </c>
       <c r="CE2" s="1">
-        <v>1995.960000</v>
+        <v>1995.96</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1608.790000</v>
+        <v>-1608.79</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>38703.603508</v>
       </c>
@@ -738,118 +1154,118 @@
         <v>10.751001</v>
       </c>
       <c r="C3" s="1">
-        <v>910.844000</v>
+        <v>910.84400000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>-175.799000</v>
+        <v>-175.79900000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>38713.723915</v>
+        <v>38713.723915000002</v>
       </c>
       <c r="G3" s="1">
         <v>10.753812</v>
       </c>
       <c r="H3" s="1">
-        <v>924.393000</v>
+        <v>924.39300000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-150.490000</v>
+        <v>-150.49</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>38724.172104</v>
+        <v>38724.172103999997</v>
       </c>
       <c r="L3" s="1">
-        <v>10.756714</v>
+        <v>10.756714000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>944.602000</v>
+        <v>944.60199999999998</v>
       </c>
       <c r="N3" s="1">
-        <v>-111.583000</v>
+        <v>-111.583</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>38734.578695</v>
+        <v>38734.578694999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>10.759605</v>
+        <v>10.759605000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>951.524000</v>
+        <v>951.524</v>
       </c>
       <c r="S3" s="1">
-        <v>-98.941500</v>
+        <v>-98.941500000000005</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>38744.872140</v>
+        <v>38744.872139999999</v>
       </c>
       <c r="V3" s="1">
         <v>10.762464</v>
       </c>
       <c r="W3" s="1">
-        <v>958.844000</v>
+        <v>958.84400000000005</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.562500</v>
+        <v>-87.5625</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>38754.999460</v>
+        <v>38754.999459999999</v>
       </c>
       <c r="AA3" s="1">
         <v>10.765278</v>
       </c>
       <c r="AB3" s="1">
-        <v>967.473000</v>
+        <v>967.47299999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.808400</v>
+        <v>-79.808400000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>38765.897552</v>
+        <v>38765.897552000002</v>
       </c>
       <c r="AF3" s="1">
         <v>10.768305</v>
       </c>
       <c r="AG3" s="1">
-        <v>973.033000</v>
+        <v>973.03300000000002</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.916100</v>
+        <v>-79.9161</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>38776.367108</v>
+        <v>38776.367107999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>10.771213</v>
+        <v>10.771212999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>981.506000</v>
+        <v>981.50599999999997</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.952000</v>
+        <v>-87.951999999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>38786.958692</v>
@@ -858,88 +1274,88 @@
         <v>10.774155</v>
       </c>
       <c r="AQ3" s="1">
-        <v>990.975000</v>
+        <v>990.97500000000002</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.035000</v>
+        <v>-103.035</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>38798.022438</v>
       </c>
       <c r="AU3" s="1">
-        <v>10.777228</v>
+        <v>10.777227999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1002.480000</v>
+        <v>1002.48</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.701000</v>
+        <v>-124.70099999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>38809.169529</v>
+        <v>38809.169528999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>10.780325</v>
+        <v>10.780324999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1012.120000</v>
+        <v>1012.12</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.584000</v>
+        <v>-143.584</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>38820.857258</v>
+        <v>38820.857258000004</v>
       </c>
       <c r="BE3" s="1">
         <v>10.783571</v>
       </c>
       <c r="BF3" s="1">
-        <v>1057.340000</v>
+        <v>1057.3399999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.091000</v>
+        <v>-229.09100000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>38831.845627</v>
+        <v>38831.845627000002</v>
       </c>
       <c r="BJ3" s="1">
         <v>10.786624</v>
       </c>
       <c r="BK3" s="1">
-        <v>1136.650000</v>
+        <v>1136.6500000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-366.812000</v>
+        <v>-366.81200000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>38843.208476</v>
       </c>
       <c r="BO3" s="1">
-        <v>10.789780</v>
+        <v>10.78978</v>
       </c>
       <c r="BP3" s="1">
-        <v>1268.350000</v>
+        <v>1268.3499999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-580.486000</v>
+        <v>-580.48599999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>38853.548573</v>
@@ -948,180 +1364,180 @@
         <v>10.792652</v>
       </c>
       <c r="BU3" s="1">
-        <v>1417.130000</v>
+        <v>1417.13</v>
       </c>
       <c r="BV3" s="1">
-        <v>-809.613000</v>
+        <v>-809.61300000000006</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>38864.225951</v>
       </c>
       <c r="BY3" s="1">
-        <v>10.795618</v>
+        <v>10.795617999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1580.350000</v>
+        <v>1580.35</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1048.540000</v>
+        <v>-1048.54</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>38875.582352</v>
+        <v>38875.582351999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>10.798773</v>
+        <v>10.798773000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1993.810000</v>
+        <v>1993.81</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1607.780000</v>
+        <v>-1607.78</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>38703.945252</v>
+        <v>38703.945251999998</v>
       </c>
       <c r="B4" s="1">
         <v>10.751096</v>
       </c>
       <c r="C4" s="1">
-        <v>910.520000</v>
+        <v>910.52</v>
       </c>
       <c r="D4" s="1">
-        <v>-175.748000</v>
+        <v>-175.74799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>38714.066119</v>
+        <v>38714.066119000003</v>
       </c>
       <c r="G4" s="1">
         <v>10.753907</v>
       </c>
       <c r="H4" s="1">
-        <v>924.833000</v>
+        <v>924.83299999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-150.640000</v>
+        <v>-150.63999999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>38724.597673</v>
+        <v>38724.597672999997</v>
       </c>
       <c r="L4" s="1">
         <v>10.756833</v>
       </c>
       <c r="M4" s="1">
-        <v>944.669000</v>
+        <v>944.66899999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>-111.619000</v>
+        <v>-111.619</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>38735.000793</v>
+        <v>38735.000792999999</v>
       </c>
       <c r="Q4" s="1">
         <v>10.759722</v>
       </c>
       <c r="R4" s="1">
-        <v>951.520000</v>
+        <v>951.52</v>
       </c>
       <c r="S4" s="1">
-        <v>-98.919900</v>
+        <v>-98.919899999999998</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>38745.192060</v>
+        <v>38745.192060000001</v>
       </c>
       <c r="V4" s="1">
         <v>10.762553</v>
       </c>
       <c r="W4" s="1">
-        <v>958.776000</v>
+        <v>958.77599999999995</v>
       </c>
       <c r="X4" s="1">
-        <v>-87.588600</v>
+        <v>-87.5886</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>38755.343183</v>
+        <v>38755.343182999997</v>
       </c>
       <c r="AA4" s="1">
         <v>10.765373</v>
       </c>
       <c r="AB4" s="1">
-        <v>967.330000</v>
+        <v>967.33</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.793600</v>
+        <v>-79.793599999999998</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>38766.241776</v>
+        <v>38766.241776000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>10.768400</v>
+        <v>10.7684</v>
       </c>
       <c r="AG4" s="1">
-        <v>972.979000</v>
+        <v>972.97900000000004</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.865600</v>
+        <v>-79.865600000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>38776.734643</v>
+        <v>38776.734643000003</v>
       </c>
       <c r="AK4" s="1">
         <v>10.771315</v>
       </c>
       <c r="AL4" s="1">
-        <v>981.544000</v>
+        <v>981.54399999999998</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.962300</v>
+        <v>-87.962299999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>38787.318774</v>
+        <v>38787.318773999999</v>
       </c>
       <c r="AP4" s="1">
         <v>10.774255</v>
       </c>
       <c r="AQ4" s="1">
-        <v>990.992000</v>
+        <v>990.99199999999996</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.067000</v>
+        <v>-103.06699999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>38798.751589</v>
@@ -1130,121 +1546,121 @@
         <v>10.777431</v>
       </c>
       <c r="AV4" s="1">
-        <v>1002.470000</v>
+        <v>1002.47</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.720000</v>
+        <v>-124.72</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>38809.892696</v>
+        <v>38809.892696000003</v>
       </c>
       <c r="AZ4" s="1">
         <v>10.780526</v>
       </c>
       <c r="BA4" s="1">
-        <v>1012.140000</v>
+        <v>1012.14</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.577000</v>
+        <v>-143.577</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>38821.220329</v>
+        <v>38821.220329000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>10.783672</v>
+        <v>10.783671999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1057.340000</v>
+        <v>1057.3399999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.090000</v>
+        <v>-229.09</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>38832.220601</v>
+        <v>38832.220601000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>10.786728</v>
       </c>
       <c r="BK4" s="1">
-        <v>1136.680000</v>
+        <v>1136.68</v>
       </c>
       <c r="BL4" s="1">
-        <v>-366.826000</v>
+        <v>-366.82600000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>38843.615722</v>
+        <v>38843.615722000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>10.789893</v>
+        <v>10.789892999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1268.350000</v>
+        <v>1268.3499999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-580.504000</v>
+        <v>-580.50400000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>38854.265788</v>
+        <v>38854.265787999997</v>
       </c>
       <c r="BT4" s="1">
         <v>10.792852</v>
       </c>
       <c r="BU4" s="1">
-        <v>1417.110000</v>
+        <v>1417.11</v>
       </c>
       <c r="BV4" s="1">
-        <v>-809.676000</v>
+        <v>-809.67600000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>38864.984829</v>
+        <v>38864.984829000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>10.795829</v>
+        <v>10.795828999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1580.500000</v>
+        <v>1580.5</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1048.570000</v>
+        <v>-1048.57</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>38875.813983</v>
       </c>
       <c r="CD4" s="1">
-        <v>10.798837</v>
+        <v>10.798837000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1995.120000</v>
+        <v>1995.12</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1608.850000</v>
+        <v>-1608.85</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>38704.288987</v>
       </c>
@@ -1252,450 +1668,450 @@
         <v>10.751191</v>
       </c>
       <c r="C5" s="1">
-        <v>910.775000</v>
+        <v>910.77499999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>-175.856000</v>
+        <v>-175.85599999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>38714.482262</v>
+        <v>38714.482261999998</v>
       </c>
       <c r="G5" s="1">
         <v>10.754023</v>
       </c>
       <c r="H5" s="1">
-        <v>924.150000</v>
+        <v>924.15</v>
       </c>
       <c r="I5" s="1">
-        <v>-150.725000</v>
+        <v>-150.72499999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>38724.863031</v>
+        <v>38724.863031000001</v>
       </c>
       <c r="L5" s="1">
-        <v>10.756906</v>
+        <v>10.756906000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>944.819000</v>
+        <v>944.81899999999996</v>
       </c>
       <c r="N5" s="1">
-        <v>-111.684000</v>
+        <v>-111.684</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>38735.297526</v>
+        <v>38735.297526000002</v>
       </c>
       <c r="Q5" s="1">
         <v>10.759805</v>
       </c>
       <c r="R5" s="1">
-        <v>951.549000</v>
+        <v>951.54899999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-98.962700</v>
+        <v>-98.962699999999998</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>38745.535788</v>
+        <v>38745.535788000001</v>
       </c>
       <c r="V5" s="1">
         <v>10.762649</v>
       </c>
       <c r="W5" s="1">
-        <v>958.890000</v>
+        <v>958.89</v>
       </c>
       <c r="X5" s="1">
-        <v>-87.543100</v>
+        <v>-87.543099999999995</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>38755.691406</v>
+        <v>38755.691405999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>10.765470</v>
+        <v>10.765470000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>967.257000</v>
+        <v>967.25699999999995</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.841700</v>
+        <v>-79.841700000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>38766.585009</v>
+        <v>38766.585009000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>10.768496</v>
+        <v>10.768496000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>973.032000</v>
+        <v>973.03200000000004</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.892800</v>
+        <v>-79.892799999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>38777.398818</v>
+        <v>38777.398818000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>10.771500</v>
+        <v>10.7715</v>
       </c>
       <c r="AL5" s="1">
-        <v>981.517000</v>
+        <v>981.51700000000005</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.959600</v>
+        <v>-87.959599999999995</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>38788.038004</v>
+        <v>38788.038004000002</v>
       </c>
       <c r="AP5" s="1">
         <v>10.774455</v>
       </c>
       <c r="AQ5" s="1">
-        <v>990.963000</v>
+        <v>990.96299999999997</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.042000</v>
+        <v>-103.042</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>38799.142438</v>
+        <v>38799.142438000003</v>
       </c>
       <c r="AU5" s="1">
-        <v>10.777540</v>
+        <v>10.77754</v>
       </c>
       <c r="AV5" s="1">
-        <v>1002.460000</v>
+        <v>1002.46</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.703000</v>
+        <v>-124.703</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>38810.267708</v>
+        <v>38810.267707999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>10.780630</v>
+        <v>10.78063</v>
       </c>
       <c r="BA5" s="1">
-        <v>1012.120000</v>
+        <v>1012.12</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.589000</v>
+        <v>-143.589</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>38821.579927</v>
+        <v>38821.579926999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>10.783772</v>
+        <v>10.783772000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1057.350000</v>
+        <v>1057.3499999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.120000</v>
+        <v>-229.12</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>38832.903128</v>
+        <v>38832.903127999998</v>
       </c>
       <c r="BJ5" s="1">
         <v>10.786918</v>
       </c>
       <c r="BK5" s="1">
-        <v>1136.690000</v>
+        <v>1136.69</v>
       </c>
       <c r="BL5" s="1">
-        <v>-366.833000</v>
+        <v>-366.83300000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>38844.323978</v>
       </c>
       <c r="BO5" s="1">
-        <v>10.790090</v>
+        <v>10.790089999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1268.330000</v>
+        <v>1268.33</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-580.489000</v>
+        <v>-580.48900000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>38854.388795</v>
+        <v>38854.388794999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>10.792886</v>
+        <v>10.792885999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1417.010000</v>
+        <v>1417.01</v>
       </c>
       <c r="BV5" s="1">
-        <v>-809.739000</v>
+        <v>-809.73900000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>38865.103374</v>
+        <v>38865.103373999998</v>
       </c>
       <c r="BY5" s="1">
         <v>10.795862</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1580.350000</v>
+        <v>1580.35</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1048.470000</v>
+        <v>-1048.47</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>38876.332303</v>
+        <v>38876.332303000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>10.798981</v>
+        <v>10.798980999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1995.480000</v>
+        <v>1995.48</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1606.800000</v>
+        <v>-1606.8</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>38704.707106</v>
+        <v>38704.707106000002</v>
       </c>
       <c r="B6" s="1">
         <v>10.751308</v>
       </c>
       <c r="C6" s="1">
-        <v>910.712000</v>
+        <v>910.71199999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-175.886000</v>
+        <v>-175.886</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>38714.763990</v>
+        <v>38714.763989999999</v>
       </c>
       <c r="G6" s="1">
         <v>10.754101</v>
       </c>
       <c r="H6" s="1">
-        <v>924.549000</v>
+        <v>924.54899999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>-150.427000</v>
+        <v>-150.42699999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>38725.207287</v>
+        <v>38725.207286999997</v>
       </c>
       <c r="L6" s="1">
         <v>10.757002</v>
       </c>
       <c r="M6" s="1">
-        <v>944.853000</v>
+        <v>944.85299999999995</v>
       </c>
       <c r="N6" s="1">
-        <v>-111.525000</v>
+        <v>-111.52500000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>38735.648042</v>
+        <v>38735.648042000001</v>
       </c>
       <c r="Q6" s="1">
         <v>10.759902</v>
       </c>
       <c r="R6" s="1">
-        <v>951.524000</v>
+        <v>951.524</v>
       </c>
       <c r="S6" s="1">
-        <v>-98.989800</v>
+        <v>-98.989800000000002</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>38745.876541</v>
+        <v>38745.876540999998</v>
       </c>
       <c r="V6" s="1">
         <v>10.762743</v>
       </c>
       <c r="W6" s="1">
-        <v>958.878000</v>
+        <v>958.87800000000004</v>
       </c>
       <c r="X6" s="1">
-        <v>-87.607200</v>
+        <v>-87.607200000000006</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>38756.039102</v>
+        <v>38756.039102000002</v>
       </c>
       <c r="AA6" s="1">
         <v>10.765566</v>
       </c>
       <c r="AB6" s="1">
-        <v>967.313000</v>
+        <v>967.31299999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.775500</v>
+        <v>-79.775499999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>38767.272463</v>
+        <v>38767.272463000001</v>
       </c>
       <c r="AF6" s="1">
         <v>10.768687</v>
       </c>
       <c r="AG6" s="1">
-        <v>972.997000</v>
+        <v>972.99699999999996</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.878600</v>
+        <v>-79.878600000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>38777.765857</v>
+        <v>38777.765856999999</v>
       </c>
       <c r="AK6" s="1">
         <v>10.771602</v>
       </c>
       <c r="AL6" s="1">
-        <v>981.510000</v>
+        <v>981.51</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.978000</v>
+        <v>-87.977999999999994</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>38788.423897</v>
+        <v>38788.423897000001</v>
       </c>
       <c r="AP6" s="1">
         <v>10.774562</v>
       </c>
       <c r="AQ6" s="1">
-        <v>990.983000</v>
+        <v>990.98299999999995</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.034000</v>
+        <v>-103.03400000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>38799.506469</v>
       </c>
       <c r="AU6" s="1">
-        <v>10.777641</v>
+        <v>10.777640999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1002.480000</v>
+        <v>1002.48</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.706000</v>
+        <v>-124.706</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>38810.646615</v>
+        <v>38810.646614999998</v>
       </c>
       <c r="AZ6" s="1">
         <v>10.780735</v>
       </c>
       <c r="BA6" s="1">
-        <v>1012.130000</v>
+        <v>1012.13</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.571000</v>
+        <v>-143.571</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>38822.249563</v>
+        <v>38822.249562999998</v>
       </c>
       <c r="BE6" s="1">
         <v>10.783958</v>
       </c>
       <c r="BF6" s="1">
-        <v>1057.330000</v>
+        <v>1057.33</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.084000</v>
+        <v>-229.084</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>38833.345528</v>
+        <v>38833.345527999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>10.787040</v>
+        <v>10.787039999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1136.650000</v>
+        <v>1136.6500000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-366.812000</v>
+        <v>-366.81200000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>38844.451449</v>
@@ -1704,332 +2120,332 @@
         <v>10.790125</v>
       </c>
       <c r="BP6" s="1">
-        <v>1268.330000</v>
+        <v>1268.33</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-580.493000</v>
+        <v>-580.49300000000005</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>38854.827261</v>
+        <v>38854.827260999999</v>
       </c>
       <c r="BT6" s="1">
         <v>10.793008</v>
       </c>
       <c r="BU6" s="1">
-        <v>1416.900000</v>
+        <v>1416.9</v>
       </c>
       <c r="BV6" s="1">
-        <v>-809.760000</v>
+        <v>-809.76</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>38865.533903</v>
+        <v>38865.533903000003</v>
       </c>
       <c r="BY6" s="1">
         <v>10.795982</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1580.380000</v>
+        <v>1580.38</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1048.530000</v>
+        <v>-1048.53</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>38876.871952</v>
+        <v>38876.871952000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>10.799131</v>
+        <v>10.799130999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1994.330000</v>
+        <v>1994.33</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1608.550000</v>
+        <v>-1608.55</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>38705.001265</v>
+        <v>38705.001264999999</v>
       </c>
       <c r="B7" s="1">
         <v>10.751389</v>
       </c>
       <c r="C7" s="1">
-        <v>910.753000</v>
+        <v>910.75300000000004</v>
       </c>
       <c r="D7" s="1">
-        <v>-175.791000</v>
+        <v>-175.791</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>38715.106755</v>
+        <v>38715.106755000001</v>
       </c>
       <c r="G7" s="1">
         <v>10.754196</v>
       </c>
       <c r="H7" s="1">
-        <v>924.571000</v>
+        <v>924.57100000000003</v>
       </c>
       <c r="I7" s="1">
-        <v>-150.257000</v>
+        <v>-150.25700000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>38725.555942</v>
+        <v>38725.555941999999</v>
       </c>
       <c r="L7" s="1">
         <v>10.757099</v>
       </c>
       <c r="M7" s="1">
-        <v>944.663000</v>
+        <v>944.66300000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-111.772000</v>
+        <v>-111.77200000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>38735.997492</v>
+        <v>38735.997492000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>10.759999</v>
+        <v>10.759999000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>951.497000</v>
+        <v>951.49699999999996</v>
       </c>
       <c r="S7" s="1">
-        <v>-98.976300</v>
+        <v>-98.976299999999995</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>38746.563995</v>
+        <v>38746.563994999997</v>
       </c>
       <c r="V7" s="1">
         <v>10.762934</v>
       </c>
       <c r="W7" s="1">
-        <v>958.876000</v>
+        <v>958.87599999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.665200</v>
+        <v>-87.665199999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>38756.737477</v>
+        <v>38756.737477000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>10.765760</v>
+        <v>10.76576</v>
       </c>
       <c r="AB7" s="1">
-        <v>967.380000</v>
+        <v>967.38</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.827400</v>
+        <v>-79.827399999999997</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>38767.615732</v>
+        <v>38767.615731999998</v>
       </c>
       <c r="AF7" s="1">
         <v>10.768782</v>
       </c>
       <c r="AG7" s="1">
-        <v>972.959000</v>
+        <v>972.95899999999995</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.849400</v>
+        <v>-79.849400000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>38778.112034</v>
+        <v>38778.112033999998</v>
       </c>
       <c r="AK7" s="1">
-        <v>10.771698</v>
+        <v>10.771698000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>981.543000</v>
+        <v>981.54300000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.953900</v>
+        <v>-87.953900000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>38788.815234</v>
+        <v>38788.815234000002</v>
       </c>
       <c r="AP7" s="1">
         <v>10.774671</v>
       </c>
       <c r="AQ7" s="1">
-        <v>990.964000</v>
+        <v>990.96400000000006</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.026000</v>
+        <v>-103.026</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>38800.179045</v>
+        <v>38800.179044999997</v>
       </c>
       <c r="AU7" s="1">
         <v>10.777828</v>
       </c>
       <c r="AV7" s="1">
-        <v>1002.450000</v>
+        <v>1002.45</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.725000</v>
+        <v>-124.72499999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>38811.311291</v>
+        <v>38811.311290999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>10.780920</v>
+        <v>10.78092</v>
       </c>
       <c r="BA7" s="1">
-        <v>1012.140000</v>
+        <v>1012.14</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.575000</v>
+        <v>-143.57499999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>38822.693974</v>
+        <v>38822.693974000002</v>
       </c>
       <c r="BE7" s="1">
         <v>10.784082</v>
       </c>
       <c r="BF7" s="1">
-        <v>1057.330000</v>
+        <v>1057.33</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.076000</v>
+        <v>-229.07599999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>38833.723479</v>
       </c>
       <c r="BJ7" s="1">
-        <v>10.787145</v>
+        <v>10.787145000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1136.620000</v>
+        <v>1136.6199999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-366.827000</v>
+        <v>-366.827</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>38844.860184</v>
+        <v>38844.860183999997</v>
       </c>
       <c r="BO7" s="1">
         <v>10.790239</v>
       </c>
       <c r="BP7" s="1">
-        <v>1268.330000</v>
+        <v>1268.33</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-580.540000</v>
+        <v>-580.54</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>38855.241419</v>
+        <v>38855.241418999998</v>
       </c>
       <c r="BT7" s="1">
         <v>10.793123</v>
       </c>
       <c r="BU7" s="1">
-        <v>1416.860000</v>
+        <v>1416.86</v>
       </c>
       <c r="BV7" s="1">
-        <v>-809.802000</v>
+        <v>-809.80200000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>38865.930242</v>
+        <v>38865.930242000002</v>
       </c>
       <c r="BY7" s="1">
         <v>10.796092</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1580.450000</v>
+        <v>1580.45</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1048.440000</v>
+        <v>-1048.44</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>38877.411103</v>
+        <v>38877.411102999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>10.799281</v>
+        <v>10.799281000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1996.200000</v>
+        <v>1996.2</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1608.120000</v>
+        <v>-1608.12</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>38705.341488</v>
+        <v>38705.341487999998</v>
       </c>
       <c r="B8" s="1">
         <v>10.751484</v>
       </c>
       <c r="C8" s="1">
-        <v>910.672000</v>
+        <v>910.67200000000003</v>
       </c>
       <c r="D8" s="1">
-        <v>-175.789000</v>
+        <v>-175.78899999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>38715.452932</v>
@@ -2038,241 +2454,241 @@
         <v>10.754292</v>
       </c>
       <c r="H8" s="1">
-        <v>924.201000</v>
+        <v>924.20100000000002</v>
       </c>
       <c r="I8" s="1">
-        <v>-150.989000</v>
+        <v>-150.989</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>38726.252325</v>
+        <v>38726.252325000001</v>
       </c>
       <c r="L8" s="1">
         <v>10.757292</v>
       </c>
       <c r="M8" s="1">
-        <v>944.621000</v>
+        <v>944.62099999999998</v>
       </c>
       <c r="N8" s="1">
-        <v>-111.710000</v>
+        <v>-111.71</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>38736.693641</v>
+        <v>38736.693640999998</v>
       </c>
       <c r="Q8" s="1">
-        <v>10.760193</v>
+        <v>10.760192999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>951.486000</v>
+        <v>951.48599999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-98.975600</v>
+        <v>-98.9756</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>38746.908746</v>
+        <v>38746.908746000001</v>
       </c>
       <c r="V8" s="1">
-        <v>10.763030</v>
+        <v>10.763030000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>958.921000</v>
+        <v>958.92100000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-87.580200</v>
+        <v>-87.580200000000005</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>38757.085629</v>
+        <v>38757.085629000001</v>
       </c>
       <c r="AA8" s="1">
         <v>10.765857</v>
       </c>
       <c r="AB8" s="1">
-        <v>967.371000</v>
+        <v>967.37099999999998</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.788600</v>
+        <v>-79.788600000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>38767.959953</v>
+        <v>38767.959952999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>10.768878</v>
+        <v>10.768878000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>973.017000</v>
+        <v>973.01700000000005</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.870100</v>
+        <v>-79.870099999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>38778.781663</v>
+        <v>38778.781663000002</v>
       </c>
       <c r="AK8" s="1">
         <v>10.771884</v>
       </c>
       <c r="AL8" s="1">
-        <v>981.507000</v>
+        <v>981.50699999999995</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.960600</v>
+        <v>-87.960599999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>38789.487778</v>
+        <v>38789.487778000002</v>
       </c>
       <c r="AP8" s="1">
         <v>10.774858</v>
       </c>
       <c r="AQ8" s="1">
-        <v>990.971000</v>
+        <v>990.971</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.027000</v>
+        <v>-103.027</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>38800.631429</v>
+        <v>38800.631429000001</v>
       </c>
       <c r="AU8" s="1">
         <v>10.777953</v>
       </c>
       <c r="AV8" s="1">
-        <v>1002.480000</v>
+        <v>1002.48</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.709000</v>
+        <v>-124.709</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>38811.731860</v>
+        <v>38811.73186</v>
       </c>
       <c r="AZ8" s="1">
         <v>10.781037</v>
       </c>
       <c r="BA8" s="1">
-        <v>1012.100000</v>
+        <v>1012.1</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.577000</v>
+        <v>-143.577</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>38823.056518</v>
+        <v>38823.056517999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>10.784182</v>
+        <v>10.784181999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1057.330000</v>
+        <v>1057.33</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.111000</v>
+        <v>-229.11099999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>38834.095974</v>
+        <v>38834.095974000003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>10.787249</v>
+        <v>10.787248999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1136.680000</v>
+        <v>1136.68</v>
       </c>
       <c r="BL8" s="1">
-        <v>-366.839000</v>
+        <v>-366.839</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>38845.257944</v>
+        <v>38845.257943999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>10.790349</v>
+        <v>10.790349000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1268.300000</v>
+        <v>1268.3</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-580.516000</v>
+        <v>-580.51599999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>38855.659050</v>
+        <v>38855.659050000002</v>
       </c>
       <c r="BT8" s="1">
         <v>10.793239</v>
       </c>
       <c r="BU8" s="1">
-        <v>1416.710000</v>
+        <v>1416.71</v>
       </c>
       <c r="BV8" s="1">
-        <v>-809.798000</v>
+        <v>-809.798</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>38866.404380</v>
+        <v>38866.40438</v>
       </c>
       <c r="BY8" s="1">
-        <v>10.796223</v>
+        <v>10.796222999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1580.460000</v>
+        <v>1580.46</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1048.450000</v>
+        <v>-1048.45</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>38877.951476</v>
+        <v>38877.951476000002</v>
       </c>
       <c r="CD8" s="1">
         <v>10.799431</v>
       </c>
       <c r="CE8" s="1">
-        <v>1994.690000</v>
+        <v>1994.69</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1607.000000</v>
+        <v>-1607</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>38705.972898</v>
       </c>
@@ -2280,103 +2696,103 @@
         <v>10.751659</v>
       </c>
       <c r="C9" s="1">
-        <v>910.708000</v>
+        <v>910.70799999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>-175.688000</v>
+        <v>-175.68799999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>38716.140387</v>
+        <v>38716.140386999999</v>
       </c>
       <c r="G9" s="1">
         <v>10.754483</v>
       </c>
       <c r="H9" s="1">
-        <v>924.717000</v>
+        <v>924.71699999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-150.662000</v>
+        <v>-150.66200000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>38726.601544</v>
+        <v>38726.601543999997</v>
       </c>
       <c r="L9" s="1">
         <v>10.757389</v>
       </c>
       <c r="M9" s="1">
-        <v>944.571000</v>
+        <v>944.57100000000003</v>
       </c>
       <c r="N9" s="1">
-        <v>-111.563000</v>
+        <v>-111.563</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>38737.042327</v>
+        <v>38737.042327000003</v>
       </c>
       <c r="Q9" s="1">
-        <v>10.760290</v>
+        <v>10.760289999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>951.540000</v>
+        <v>951.54</v>
       </c>
       <c r="S9" s="1">
-        <v>-98.950000</v>
+        <v>-98.95</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>38747.250490</v>
+        <v>38747.250489999999</v>
       </c>
       <c r="V9" s="1">
         <v>10.763125</v>
       </c>
       <c r="W9" s="1">
-        <v>958.824000</v>
+        <v>958.82399999999996</v>
       </c>
       <c r="X9" s="1">
-        <v>-87.577500</v>
+        <v>-87.577500000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>38757.436796</v>
+        <v>38757.436796000002</v>
       </c>
       <c r="AA9" s="1">
         <v>10.765955</v>
       </c>
       <c r="AB9" s="1">
-        <v>967.365000</v>
+        <v>967.36500000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.881100</v>
+        <v>-79.881100000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>38768.611182</v>
+        <v>38768.611182000001</v>
       </c>
       <c r="AF9" s="1">
         <v>10.769059</v>
       </c>
       <c r="AG9" s="1">
-        <v>972.961000</v>
+        <v>972.96100000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.897600</v>
+        <v>-79.897599999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>38779.158593</v>
@@ -2385,375 +2801,375 @@
         <v>10.771988</v>
       </c>
       <c r="AL9" s="1">
-        <v>981.550000</v>
+        <v>981.55</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.968100</v>
+        <v>-87.968100000000007</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>38789.893506</v>
       </c>
       <c r="AP9" s="1">
-        <v>10.774970</v>
+        <v>10.77497</v>
       </c>
       <c r="AQ9" s="1">
-        <v>990.978000</v>
+        <v>990.97799999999995</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.039000</v>
+        <v>-103.039</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>38800.993476</v>
+        <v>38800.993476000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>10.778054</v>
+        <v>10.778053999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1002.460000</v>
+        <v>1002.46</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.703000</v>
+        <v>-124.703</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>38812.108325</v>
+        <v>38812.108325000001</v>
       </c>
       <c r="AZ9" s="1">
         <v>10.781141</v>
       </c>
       <c r="BA9" s="1">
-        <v>1012.140000</v>
+        <v>1012.14</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.566000</v>
+        <v>-143.566</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>38823.413637</v>
+        <v>38823.413636999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>10.784282</v>
+        <v>10.784281999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1057.340000</v>
+        <v>1057.3399999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.094000</v>
+        <v>-229.09399999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>38834.513144</v>
+        <v>38834.513143999997</v>
       </c>
       <c r="BJ9" s="1">
-        <v>10.787365</v>
+        <v>10.787364999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1136.660000</v>
+        <v>1136.6600000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-366.815000</v>
+        <v>-366.815</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>38845.679544</v>
+        <v>38845.679543999999</v>
       </c>
       <c r="BO9" s="1">
         <v>10.790467</v>
       </c>
       <c r="BP9" s="1">
-        <v>1268.340000</v>
+        <v>1268.3399999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-580.545000</v>
+        <v>-580.54499999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>38856.070037</v>
+        <v>38856.070036999998</v>
       </c>
       <c r="BT9" s="1">
         <v>10.793353</v>
       </c>
       <c r="BU9" s="1">
-        <v>1416.630000</v>
+        <v>1416.63</v>
       </c>
       <c r="BV9" s="1">
-        <v>-809.787000</v>
+        <v>-809.78700000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>38866.850779</v>
       </c>
       <c r="BY9" s="1">
-        <v>10.796347</v>
+        <v>10.796347000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1580.360000</v>
+        <v>1580.36</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1048.540000</v>
+        <v>-1048.54</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>38878.491885</v>
+        <v>38878.491885000003</v>
       </c>
       <c r="CD9" s="1">
         <v>10.799581</v>
       </c>
       <c r="CE9" s="1">
-        <v>1994.650000</v>
+        <v>1994.65</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1609.350000</v>
+        <v>-1609.35</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>38706.367215</v>
+        <v>38706.367214999998</v>
       </c>
       <c r="B10" s="1">
-        <v>10.751769</v>
+        <v>10.751768999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>910.643000</v>
+        <v>910.64300000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-175.825000</v>
+        <v>-175.82499999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>38716.485602</v>
+        <v>38716.485602000001</v>
       </c>
       <c r="G10" s="1">
         <v>10.754579</v>
       </c>
       <c r="H10" s="1">
-        <v>924.334000</v>
+        <v>924.33399999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-150.680000</v>
+        <v>-150.68</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>38726.944244</v>
+        <v>38726.944243999998</v>
       </c>
       <c r="L10" s="1">
-        <v>10.757485</v>
+        <v>10.757485000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>944.719000</v>
+        <v>944.71900000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-111.594000</v>
+        <v>-111.59399999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>38737.389526</v>
+        <v>38737.389525999999</v>
       </c>
       <c r="Q10" s="1">
         <v>10.760386</v>
       </c>
       <c r="R10" s="1">
-        <v>951.533000</v>
+        <v>951.53300000000002</v>
       </c>
       <c r="S10" s="1">
-        <v>-98.961200</v>
+        <v>-98.961200000000005</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>38747.906168</v>
+        <v>38747.906168000001</v>
       </c>
       <c r="V10" s="1">
-        <v>10.763307</v>
+        <v>10.763306999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>958.845000</v>
+        <v>958.84500000000003</v>
       </c>
       <c r="X10" s="1">
-        <v>-87.650600</v>
+        <v>-87.650599999999997</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>38758.091556</v>
+        <v>38758.091555999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>10.766137</v>
+        <v>10.766137000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>967.289000</v>
+        <v>967.28899999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.867900</v>
+        <v>-79.867900000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>38768.990606</v>
+        <v>38768.990605999999</v>
       </c>
       <c r="AF10" s="1">
         <v>10.769164</v>
       </c>
       <c r="AG10" s="1">
-        <v>972.973000</v>
+        <v>972.97299999999996</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.914300</v>
+        <v>-79.914299999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>38779.505791</v>
+        <v>38779.505791000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>10.772085</v>
+        <v>10.772085000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>981.506000</v>
+        <v>981.50599999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.931400</v>
+        <v>-87.931399999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>38790.281875</v>
+        <v>38790.281875000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>10.775078</v>
+        <v>10.775078000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>990.997000</v>
+        <v>990.99699999999996</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.069000</v>
+        <v>-103.069</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>38801.360546</v>
+        <v>38801.360546000004</v>
       </c>
       <c r="AU10" s="1">
-        <v>10.778156</v>
+        <v>10.778155999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1002.500000</v>
+        <v>1002.5</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.720000</v>
+        <v>-124.72</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>38812.485779</v>
+        <v>38812.485779000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>10.781246</v>
+        <v>10.781245999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1012.120000</v>
+        <v>1012.12</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.583000</v>
+        <v>-143.583</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>38823.826805</v>
+        <v>38823.826804999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>10.784396</v>
+        <v>10.784395999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1057.340000</v>
+        <v>1057.3399999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.070000</v>
+        <v>-229.07</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>38834.866757</v>
+        <v>38834.866757000003</v>
       </c>
       <c r="BJ10" s="1">
-        <v>10.787463</v>
+        <v>10.787463000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1136.680000</v>
+        <v>1136.68</v>
       </c>
       <c r="BL10" s="1">
-        <v>-366.811000</v>
+        <v>-366.81099999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>38846.086759</v>
+        <v>38846.086758999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>10.790580</v>
+        <v>10.79058</v>
       </c>
       <c r="BP10" s="1">
-        <v>1268.320000</v>
+        <v>1268.32</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-580.519000</v>
+        <v>-580.51900000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>38856.484394</v>
+        <v>38856.484393999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>10.793468</v>
+        <v>10.793468000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1416.560000</v>
+        <v>1416.56</v>
       </c>
       <c r="BV10" s="1">
-        <v>-809.799000</v>
+        <v>-809.79899999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>38867.270891</v>
@@ -2762,31 +3178,31 @@
         <v>10.796464</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1580.540000</v>
+        <v>1580.54</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1048.580000</v>
+        <v>-1048.58</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>38879.032523</v>
+        <v>38879.032523000002</v>
       </c>
       <c r="CD10" s="1">
         <v>10.799731</v>
       </c>
       <c r="CE10" s="1">
-        <v>1996.110000</v>
+        <v>1996.11</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1607.070000</v>
+        <v>-1607.07</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>38706.700031</v>
       </c>
@@ -2794,163 +3210,163 @@
         <v>10.751861</v>
       </c>
       <c r="C11" s="1">
-        <v>910.713000</v>
+        <v>910.71299999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>-175.886000</v>
+        <v>-175.886</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>38716.831811</v>
+        <v>38716.831810999996</v>
       </c>
       <c r="G11" s="1">
         <v>10.754676</v>
       </c>
       <c r="H11" s="1">
-        <v>924.444000</v>
+        <v>924.44399999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-150.287000</v>
+        <v>-150.28700000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>38727.607427</v>
+        <v>38727.607427000003</v>
       </c>
       <c r="L11" s="1">
         <v>10.757669</v>
       </c>
       <c r="M11" s="1">
-        <v>944.544000</v>
+        <v>944.54399999999998</v>
       </c>
       <c r="N11" s="1">
-        <v>-111.521000</v>
+        <v>-111.521</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>38738.052150</v>
+        <v>38738.052150000003</v>
       </c>
       <c r="Q11" s="1">
-        <v>10.760570</v>
+        <v>10.76057</v>
       </c>
       <c r="R11" s="1">
-        <v>951.521000</v>
+        <v>951.52099999999996</v>
       </c>
       <c r="S11" s="1">
-        <v>-99.029000</v>
+        <v>-99.028999999999996</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>38748.280687</v>
+        <v>38748.280686999999</v>
       </c>
       <c r="V11" s="1">
         <v>10.763411</v>
       </c>
       <c r="W11" s="1">
-        <v>958.846000</v>
+        <v>958.846</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.659300</v>
+        <v>-87.659300000000002</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>38758.475916</v>
+        <v>38758.475916000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>10.766243</v>
+        <v>10.766242999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>967.319000</v>
+        <v>967.31899999999996</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.811300</v>
+        <v>-79.811300000000003</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>38769.331854</v>
+        <v>38769.331853999996</v>
       </c>
       <c r="AF11" s="1">
         <v>10.769259</v>
       </c>
       <c r="AG11" s="1">
-        <v>973.014000</v>
+        <v>973.01400000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.859300</v>
+        <v>-79.859300000000005</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>38779.854479</v>
+        <v>38779.854479000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>10.772182</v>
+        <v>10.772182000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>981.525000</v>
+        <v>981.52499999999998</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.972200</v>
+        <v>-87.972200000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>38790.638495</v>
+        <v>38790.638494999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>10.775177</v>
+        <v>10.775176999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>990.979000</v>
+        <v>990.97900000000004</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.050000</v>
+        <v>-103.05</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>38801.777682</v>
       </c>
       <c r="AU11" s="1">
-        <v>10.778272</v>
+        <v>10.778271999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1002.480000</v>
+        <v>1002.48</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.710000</v>
+        <v>-124.71</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>38813.204978</v>
+        <v>38813.204978000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>10.781446</v>
+        <v>10.781446000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1012.130000</v>
+        <v>1012.13</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.574000</v>
+        <v>-143.57400000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>38824.137831</v>
@@ -2959,210 +3375,210 @@
         <v>10.784483</v>
       </c>
       <c r="BF11" s="1">
-        <v>1057.340000</v>
+        <v>1057.3399999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.091000</v>
+        <v>-229.09100000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>38835.241239</v>
+        <v>38835.241239000003</v>
       </c>
       <c r="BJ11" s="1">
-        <v>10.787567</v>
+        <v>10.787566999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1136.650000</v>
+        <v>1136.6500000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-366.838000</v>
+        <v>-366.83800000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>38846.498440</v>
+        <v>38846.498440000003</v>
       </c>
       <c r="BO11" s="1">
         <v>10.790694</v>
       </c>
       <c r="BP11" s="1">
-        <v>1268.290000</v>
+        <v>1268.29</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-580.501000</v>
+        <v>-580.50099999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>38856.899048</v>
+        <v>38856.899047999999</v>
       </c>
       <c r="BT11" s="1">
         <v>10.793583</v>
       </c>
       <c r="BU11" s="1">
-        <v>1416.490000</v>
+        <v>1416.49</v>
       </c>
       <c r="BV11" s="1">
-        <v>-809.535000</v>
+        <v>-809.53499999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>38867.694474</v>
+        <v>38867.694474000004</v>
       </c>
       <c r="BY11" s="1">
-        <v>10.796582</v>
+        <v>10.796582000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1580.310000</v>
+        <v>1580.31</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1048.480000</v>
+        <v>-1048.48</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>38879.568699</v>
+        <v>38879.568699000003</v>
       </c>
       <c r="CD11" s="1">
-        <v>10.799880</v>
+        <v>10.79988</v>
       </c>
       <c r="CE11" s="1">
-        <v>1994.170000</v>
+        <v>1994.17</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1607.690000</v>
+        <v>-1607.69</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>38707.357728</v>
+        <v>38707.357728000003</v>
       </c>
       <c r="B12" s="1">
         <v>10.752044</v>
       </c>
       <c r="C12" s="1">
-        <v>910.545000</v>
+        <v>910.54499999999996</v>
       </c>
       <c r="D12" s="1">
-        <v>-175.628000</v>
+        <v>-175.62799999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>38717.487522</v>
+        <v>38717.487522000003</v>
       </c>
       <c r="G12" s="1">
         <v>10.754858</v>
       </c>
       <c r="H12" s="1">
-        <v>924.547000</v>
+        <v>924.54700000000003</v>
       </c>
       <c r="I12" s="1">
-        <v>-150.200000</v>
+        <v>-150.19999999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>38728.201139</v>
+        <v>38728.201138999997</v>
       </c>
       <c r="L12" s="1">
-        <v>10.757834</v>
+        <v>10.757834000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>944.664000</v>
+        <v>944.66399999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-111.763000</v>
+        <v>-111.76300000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>38738.437077</v>
+        <v>38738.437077000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>10.760677</v>
+        <v>10.760676999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>951.514000</v>
+        <v>951.51400000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-98.981000</v>
+        <v>-98.980999999999995</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>38748.625901</v>
+        <v>38748.625900999999</v>
       </c>
       <c r="V12" s="1">
-        <v>10.763507</v>
+        <v>10.763507000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>958.894000</v>
+        <v>958.89400000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-87.636900</v>
+        <v>-87.636899999999997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>38758.828074</v>
+        <v>38758.828073999997</v>
       </c>
       <c r="AA12" s="1">
-        <v>10.766341</v>
+        <v>10.766341000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>967.337000</v>
+        <v>967.33699999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.790600</v>
+        <v>-79.790599999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>38769.679581</v>
+        <v>38769.679580999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>10.769355</v>
+        <v>10.769354999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>972.991000</v>
+        <v>972.99099999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.832300</v>
+        <v>-79.832300000000004</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>38780.278590</v>
+        <v>38780.278590000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>10.772300</v>
+        <v>10.7723</v>
       </c>
       <c r="AL12" s="1">
-        <v>981.512000</v>
+        <v>981.51199999999994</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.964300</v>
+        <v>-87.964299999999994</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>38791.053152</v>
@@ -3171,73 +3587,73 @@
         <v>10.775293</v>
       </c>
       <c r="AQ12" s="1">
-        <v>990.952000</v>
+        <v>990.952</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.025000</v>
+        <v>-103.02500000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>38802.092610</v>
+        <v>38802.09261</v>
       </c>
       <c r="AU12" s="1">
         <v>10.778359</v>
       </c>
       <c r="AV12" s="1">
-        <v>1002.470000</v>
+        <v>1002.47</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.717000</v>
+        <v>-124.717</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>38813.552179</v>
+        <v>38813.552178999998</v>
       </c>
       <c r="AZ12" s="1">
         <v>10.781542</v>
       </c>
       <c r="BA12" s="1">
-        <v>1012.110000</v>
+        <v>1012.11</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.563000</v>
+        <v>-143.56299999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>38824.488964</v>
+        <v>38824.488963999996</v>
       </c>
       <c r="BE12" s="1">
-        <v>10.784580</v>
+        <v>10.78458</v>
       </c>
       <c r="BF12" s="1">
-        <v>1057.330000</v>
+        <v>1057.33</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.095000</v>
+        <v>-229.095</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>38835.619221</v>
+        <v>38835.619221000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>10.787672</v>
+        <v>10.787672000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1136.650000</v>
+        <v>1136.6500000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-366.796000</v>
+        <v>-366.79599999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>38846.890775</v>
@@ -3246,135 +3662,135 @@
         <v>10.790803</v>
       </c>
       <c r="BP12" s="1">
-        <v>1268.330000</v>
+        <v>1268.33</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-580.526000</v>
+        <v>-580.52599999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>38857.319169</v>
+        <v>38857.319169000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>10.793700</v>
+        <v>10.793699999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1416.410000</v>
+        <v>1416.41</v>
       </c>
       <c r="BV12" s="1">
-        <v>-809.490000</v>
+        <v>-809.49</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>38868.122523</v>
+        <v>38868.122522999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>10.796701</v>
+        <v>10.796701000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1580.480000</v>
+        <v>1580.48</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1048.540000</v>
+        <v>-1048.54</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>38880.112810</v>
+        <v>38880.112809999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>10.800031</v>
+        <v>10.800031000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1995.520000</v>
+        <v>1995.52</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1609.010000</v>
+        <v>-1609.01</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>38707.735182</v>
+        <v>38707.735181999997</v>
       </c>
       <c r="B13" s="1">
-        <v>10.752149</v>
+        <v>10.752148999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>910.592000</v>
+        <v>910.59199999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>-175.934000</v>
+        <v>-175.934</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>38717.865977</v>
+        <v>38717.865977000001</v>
       </c>
       <c r="G13" s="1">
         <v>10.754963</v>
       </c>
       <c r="H13" s="1">
-        <v>924.383000</v>
+        <v>924.38300000000004</v>
       </c>
       <c r="I13" s="1">
-        <v>-150.916000</v>
+        <v>-150.916</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>38728.553762</v>
+        <v>38728.553762000003</v>
       </c>
       <c r="L13" s="1">
         <v>10.757932</v>
       </c>
       <c r="M13" s="1">
-        <v>944.624000</v>
+        <v>944.62400000000002</v>
       </c>
       <c r="N13" s="1">
-        <v>-111.533000</v>
+        <v>-111.533</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>38738.785765</v>
+        <v>38738.785765000001</v>
       </c>
       <c r="Q13" s="1">
         <v>10.760774</v>
       </c>
       <c r="R13" s="1">
-        <v>951.486000</v>
+        <v>951.48599999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-98.967000</v>
+        <v>-98.966999999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>38748.974552</v>
       </c>
       <c r="V13" s="1">
-        <v>10.763604</v>
+        <v>10.763604000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>958.903000</v>
+        <v>958.90300000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-87.618100</v>
+        <v>-87.618099999999998</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>38759.358795</v>
@@ -3383,210 +3799,210 @@
         <v>10.766489</v>
       </c>
       <c r="AB13" s="1">
-        <v>967.368000</v>
+        <v>967.36800000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.796600</v>
+        <v>-79.796599999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>38770.093709</v>
+        <v>38770.093709000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>10.769470</v>
+        <v>10.76947</v>
       </c>
       <c r="AG13" s="1">
-        <v>973.016000</v>
+        <v>973.01599999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.878500</v>
+        <v>-79.878500000000003</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>38780.567229</v>
       </c>
       <c r="AK13" s="1">
-        <v>10.772380</v>
+        <v>10.77238</v>
       </c>
       <c r="AL13" s="1">
-        <v>981.520000</v>
+        <v>981.52</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.960800</v>
+        <v>-87.960800000000006</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>38791.360175</v>
+        <v>38791.360175000002</v>
       </c>
       <c r="AP13" s="1">
         <v>10.775378</v>
       </c>
       <c r="AQ13" s="1">
-        <v>990.975000</v>
+        <v>990.97500000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.040000</v>
+        <v>-103.04</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>38802.453696</v>
+        <v>38802.453695999997</v>
       </c>
       <c r="AU13" s="1">
         <v>10.778459</v>
       </c>
       <c r="AV13" s="1">
-        <v>1002.480000</v>
+        <v>1002.48</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.694000</v>
+        <v>-124.694</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>38813.921201</v>
+        <v>38813.921200999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>10.781645</v>
+        <v>10.781644999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1012.110000</v>
+        <v>1012.11</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.558000</v>
+        <v>-143.55799999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>38824.860963</v>
+        <v>38824.860962999999</v>
       </c>
       <c r="BE13" s="1">
         <v>10.784684</v>
       </c>
       <c r="BF13" s="1">
-        <v>1057.320000</v>
+        <v>1057.32</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.091000</v>
+        <v>-229.09100000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>38836.368147</v>
+        <v>38836.368147000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>10.787880</v>
+        <v>10.787879999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1136.630000</v>
+        <v>1136.6300000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-366.849000</v>
+        <v>-366.84899999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>38847.312380</v>
+        <v>38847.312380000003</v>
       </c>
       <c r="BO13" s="1">
-        <v>10.790920</v>
+        <v>10.79092</v>
       </c>
       <c r="BP13" s="1">
-        <v>1268.340000</v>
+        <v>1268.3399999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-580.543000</v>
+        <v>-580.54300000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>38857.732825</v>
+        <v>38857.732824999999</v>
       </c>
       <c r="BT13" s="1">
         <v>10.793815</v>
       </c>
       <c r="BU13" s="1">
-        <v>1416.400000</v>
+        <v>1416.4</v>
       </c>
       <c r="BV13" s="1">
-        <v>-809.342000</v>
+        <v>-809.34199999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>38868.537674</v>
+        <v>38868.537673999999</v>
       </c>
       <c r="BY13" s="1">
         <v>10.796816</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1580.420000</v>
+        <v>1580.42</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1048.580000</v>
+        <v>-1048.58</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>38880.650473</v>
+        <v>38880.650473000002</v>
       </c>
       <c r="CD13" s="1">
         <v>10.800181</v>
       </c>
       <c r="CE13" s="1">
-        <v>1995.300000</v>
+        <v>1995.3</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1606.840000</v>
+        <v>-1606.84</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>38708.082393</v>
+        <v>38708.082392999997</v>
       </c>
       <c r="B14" s="1">
         <v>10.752245</v>
       </c>
       <c r="C14" s="1">
-        <v>910.713000</v>
+        <v>910.71299999999997</v>
       </c>
       <c r="D14" s="1">
-        <v>-175.939000</v>
+        <v>-175.93899999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>38718.209236</v>
+        <v>38718.209236000002</v>
       </c>
       <c r="G14" s="1">
         <v>10.755058</v>
       </c>
       <c r="H14" s="1">
-        <v>924.770000</v>
+        <v>924.77</v>
       </c>
       <c r="I14" s="1">
-        <v>-150.779000</v>
+        <v>-150.779</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>38728.898169</v>
@@ -3595,88 +4011,88 @@
         <v>10.758027</v>
       </c>
       <c r="M14" s="1">
-        <v>944.556000</v>
+        <v>944.55600000000004</v>
       </c>
       <c r="N14" s="1">
-        <v>-111.602000</v>
+        <v>-111.602</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>38739.130543</v>
+        <v>38739.130542999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>10.760870</v>
+        <v>10.760870000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>951.527000</v>
+        <v>951.52700000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-98.967400</v>
+        <v>-98.967399999999998</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>38749.400120</v>
+        <v>38749.400119999998</v>
       </c>
       <c r="V14" s="1">
         <v>10.763722</v>
       </c>
       <c r="W14" s="1">
-        <v>958.843000</v>
+        <v>958.84299999999996</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.534100</v>
+        <v>-87.534099999999995</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>38759.874170</v>
+        <v>38759.874170000003</v>
       </c>
       <c r="AA14" s="1">
         <v>10.766632</v>
       </c>
       <c r="AB14" s="1">
-        <v>967.403000</v>
+        <v>967.40300000000002</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.841400</v>
+        <v>-79.841399999999993</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>38770.388332</v>
+        <v>38770.388332000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>10.769552</v>
+        <v>10.769551999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>972.994000</v>
+        <v>972.99400000000003</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.908900</v>
+        <v>-79.908900000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>38780.915421</v>
+        <v>38780.915420999998</v>
       </c>
       <c r="AK14" s="1">
         <v>10.772477</v>
       </c>
       <c r="AL14" s="1">
-        <v>981.543000</v>
+        <v>981.54300000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.972800</v>
+        <v>-87.972800000000007</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>38791.721264</v>
@@ -3685,58 +4101,58 @@
         <v>10.775478</v>
       </c>
       <c r="AQ14" s="1">
-        <v>990.962000</v>
+        <v>990.96199999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.041000</v>
+        <v>-103.041</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>38802.818283</v>
+        <v>38802.818283000001</v>
       </c>
       <c r="AU14" s="1">
         <v>10.778561</v>
       </c>
       <c r="AV14" s="1">
-        <v>1002.480000</v>
+        <v>1002.48</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.714000</v>
+        <v>-124.714</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>38814.639410</v>
+        <v>38814.639410000003</v>
       </c>
       <c r="AZ14" s="1">
         <v>10.781844</v>
       </c>
       <c r="BA14" s="1">
-        <v>1012.110000</v>
+        <v>1012.11</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.575000</v>
+        <v>-143.57499999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>38825.583174</v>
+        <v>38825.583173999999</v>
       </c>
       <c r="BE14" s="1">
         <v>10.784884</v>
       </c>
       <c r="BF14" s="1">
-        <v>1057.340000</v>
+        <v>1057.3399999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.095000</v>
+        <v>-229.095</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>38836.742627</v>
@@ -3745,58 +4161,58 @@
         <v>10.787984</v>
       </c>
       <c r="BK14" s="1">
-        <v>1136.650000</v>
+        <v>1136.6500000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-366.833000</v>
+        <v>-366.83300000000003</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>38847.709702</v>
       </c>
       <c r="BO14" s="1">
-        <v>10.791030</v>
+        <v>10.791029999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1268.320000</v>
+        <v>1268.32</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-580.562000</v>
+        <v>-580.56200000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>38858.146520</v>
+        <v>38858.146520000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>10.793930</v>
+        <v>10.79393</v>
       </c>
       <c r="BU14" s="1">
-        <v>1416.500000</v>
+        <v>1416.5</v>
       </c>
       <c r="BV14" s="1">
-        <v>-809.248000</v>
+        <v>-809.24800000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>38869.301017</v>
+        <v>38869.301016999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>10.797028</v>
+        <v>10.797027999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1580.380000</v>
+        <v>1580.38</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1048.590000</v>
+        <v>-1048.5899999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>38881.509049</v>
@@ -3805,255 +4221,255 @@
         <v>10.800419</v>
       </c>
       <c r="CE14" s="1">
-        <v>1996.100000</v>
+        <v>1996.1</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1608.550000</v>
+        <v>-1608.55</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>38708.419197</v>
+        <v>38708.419197000003</v>
       </c>
       <c r="B15" s="1">
-        <v>10.752339</v>
+        <v>10.752338999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>910.525000</v>
+        <v>910.52499999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-175.903000</v>
+        <v>-175.90299999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>38718.554417</v>
+        <v>38718.554416999999</v>
       </c>
       <c r="G15" s="1">
-        <v>10.755154</v>
+        <v>10.755153999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>924.783000</v>
+        <v>924.78300000000002</v>
       </c>
       <c r="I15" s="1">
-        <v>-150.334000</v>
+        <v>-150.334</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>38729.313633</v>
+        <v>38729.313632999998</v>
       </c>
       <c r="L15" s="1">
         <v>10.758143</v>
       </c>
       <c r="M15" s="1">
-        <v>944.740000</v>
+        <v>944.74</v>
       </c>
       <c r="N15" s="1">
-        <v>-111.760000</v>
+        <v>-111.76</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>38739.562965</v>
+        <v>38739.562964999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>10.760990</v>
+        <v>10.76099</v>
       </c>
       <c r="R15" s="1">
-        <v>951.515000</v>
+        <v>951.51499999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-98.971000</v>
+        <v>-98.971000000000004</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>38749.678406</v>
+        <v>38749.678405999999</v>
       </c>
       <c r="V15" s="1">
-        <v>10.763800</v>
+        <v>10.7638</v>
       </c>
       <c r="W15" s="1">
-        <v>958.811000</v>
+        <v>958.81100000000004</v>
       </c>
       <c r="X15" s="1">
-        <v>-87.639200</v>
+        <v>-87.639200000000002</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>38760.222825</v>
+        <v>38760.222824999997</v>
       </c>
       <c r="AA15" s="1">
         <v>10.766729</v>
       </c>
       <c r="AB15" s="1">
-        <v>967.369000</v>
+        <v>967.36900000000003</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.843200</v>
+        <v>-79.843199999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>38770.728587</v>
+        <v>38770.728586999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>10.769647</v>
+        <v>10.769647000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>973.017000</v>
+        <v>973.01700000000005</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.849000</v>
+        <v>-79.849000000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>38781.265596</v>
+        <v>38781.265595999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>10.772574</v>
+        <v>10.772574000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>981.530000</v>
+        <v>981.53</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.976400</v>
+        <v>-87.976399999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>38792.080863</v>
+        <v>38792.080863000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>10.775578</v>
+        <v>10.775577999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>990.960000</v>
+        <v>990.96</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.040000</v>
+        <v>-103.04</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>38803.548899</v>
+        <v>38803.548899000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>10.778764</v>
+        <v>10.778764000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1002.480000</v>
+        <v>1002.48</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.722000</v>
+        <v>-124.72199999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>38814.996032</v>
+        <v>38814.996032000003</v>
       </c>
       <c r="AZ15" s="1">
         <v>10.781943</v>
       </c>
       <c r="BA15" s="1">
-        <v>1012.130000</v>
+        <v>1012.13</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.580000</v>
+        <v>-143.58000000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>38825.970515</v>
+        <v>38825.970515000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>10.784992</v>
+        <v>10.784992000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1057.350000</v>
+        <v>1057.3499999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.101000</v>
+        <v>-229.101</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>38837.117602</v>
+        <v>38837.117601999998</v>
       </c>
       <c r="BJ15" s="1">
         <v>10.788088</v>
       </c>
       <c r="BK15" s="1">
-        <v>1136.620000</v>
+        <v>1136.6199999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-366.805000</v>
+        <v>-366.80500000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>38848.153092</v>
       </c>
       <c r="BO15" s="1">
-        <v>10.791154</v>
+        <v>10.791154000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1268.310000</v>
+        <v>1268.31</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-580.520000</v>
+        <v>-580.52</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>38858.867175</v>
+        <v>38858.867174999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>10.794130</v>
+        <v>10.794129999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1416.580000</v>
+        <v>1416.58</v>
       </c>
       <c r="BV15" s="1">
-        <v>-809.143000</v>
+        <v>-809.14300000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>38869.429017</v>
+        <v>38869.429017000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>10.797064</v>
+        <v>10.797064000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1580.410000</v>
+        <v>1580.41</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1048.650000</v>
+        <v>-1048.6500000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>38881.731754</v>
@@ -4062,75 +4478,75 @@
         <v>10.800481</v>
       </c>
       <c r="CE15" s="1">
-        <v>1996.010000</v>
+        <v>1996.01</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1608.770000</v>
+        <v>-1608.77</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>38708.844274</v>
+        <v>38708.844274000003</v>
       </c>
       <c r="B16" s="1">
         <v>10.752457</v>
       </c>
       <c r="C16" s="1">
-        <v>910.698000</v>
+        <v>910.69799999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>-175.848000</v>
+        <v>-175.84800000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>38718.972544</v>
+        <v>38718.972543999997</v>
       </c>
       <c r="G16" s="1">
-        <v>10.755270</v>
+        <v>10.755269999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>924.790000</v>
+        <v>924.79</v>
       </c>
       <c r="I16" s="1">
-        <v>-150.339000</v>
+        <v>-150.339</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>38729.606306</v>
+        <v>38729.606306000001</v>
       </c>
       <c r="L16" s="1">
         <v>10.758224</v>
       </c>
       <c r="M16" s="1">
-        <v>944.608000</v>
+        <v>944.60799999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-111.591000</v>
+        <v>-111.59099999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>38739.845187</v>
+        <v>38739.845186999999</v>
       </c>
       <c r="Q16" s="1">
         <v>10.761068</v>
       </c>
       <c r="R16" s="1">
-        <v>951.559000</v>
+        <v>951.55899999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-98.968500</v>
+        <v>-98.968500000000006</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>38750.021643</v>
@@ -4139,43 +4555,43 @@
         <v>10.763895</v>
       </c>
       <c r="W16" s="1">
-        <v>958.842000</v>
+        <v>958.84199999999998</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.557700</v>
+        <v>-87.557699999999997</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>38760.571047</v>
+        <v>38760.571046999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>10.766825</v>
+        <v>10.766825000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>967.324000</v>
+        <v>967.32399999999996</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.744000</v>
+        <v>-79.744</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>38771.074330</v>
+        <v>38771.074330000003</v>
       </c>
       <c r="AF16" s="1">
         <v>10.769743</v>
       </c>
       <c r="AG16" s="1">
-        <v>973.018000</v>
+        <v>973.01800000000003</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.925600</v>
+        <v>-79.925600000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>38781.961485</v>
@@ -4184,330 +4600,330 @@
         <v>10.772767</v>
       </c>
       <c r="AL16" s="1">
-        <v>981.507000</v>
+        <v>981.50699999999995</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.962800</v>
+        <v>-87.962800000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>38792.801549</v>
+        <v>38792.801549000003</v>
       </c>
       <c r="AP16" s="1">
-        <v>10.775778</v>
+        <v>10.775778000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>990.975000</v>
+        <v>990.97500000000002</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.050000</v>
+        <v>-103.05</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>38803.939742</v>
+        <v>38803.939742000002</v>
       </c>
       <c r="AU16" s="1">
         <v>10.778872</v>
       </c>
       <c r="AV16" s="1">
-        <v>1002.460000</v>
+        <v>1002.46</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.698000</v>
+        <v>-124.69799999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>38815.356143</v>
+        <v>38815.356142999997</v>
       </c>
       <c r="AZ16" s="1">
         <v>10.782043</v>
       </c>
       <c r="BA16" s="1">
-        <v>1012.120000</v>
+        <v>1012.12</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.571000</v>
+        <v>-143.571</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>38826.330149</v>
+        <v>38826.330149000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>10.785092</v>
+        <v>10.785092000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1057.350000</v>
+        <v>1057.3499999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.110000</v>
+        <v>-229.11</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>38837.804563</v>
+        <v>38837.804562999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>10.788279</v>
+        <v>10.788278999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1136.640000</v>
+        <v>1136.6400000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-366.802000</v>
+        <v>-366.80200000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>38848.633219</v>
+        <v>38848.633219000003</v>
       </c>
       <c r="BO16" s="1">
-        <v>10.791287</v>
+        <v>10.791287000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1268.350000</v>
+        <v>1268.3499999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-580.521000</v>
+        <v>-580.52099999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>38858.976295</v>
       </c>
       <c r="BT16" s="1">
-        <v>10.794160</v>
+        <v>10.79416</v>
       </c>
       <c r="BU16" s="1">
-        <v>1416.730000</v>
+        <v>1416.73</v>
       </c>
       <c r="BV16" s="1">
-        <v>-809.052000</v>
+        <v>-809.05200000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>38869.857564</v>
+        <v>38869.857563999998</v>
       </c>
       <c r="BY16" s="1">
         <v>10.797183</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1580.560000</v>
+        <v>1580.56</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1048.650000</v>
+        <v>-1048.6500000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>38882.250071</v>
+        <v>38882.250071000002</v>
       </c>
       <c r="CD16" s="1">
         <v>10.800625</v>
       </c>
       <c r="CE16" s="1">
-        <v>1996.020000</v>
+        <v>1996.02</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1607.130000</v>
+        <v>-1607.13</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>38709.123980</v>
+        <v>38709.123979999997</v>
       </c>
       <c r="B17" s="1">
-        <v>10.752534</v>
+        <v>10.752534000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>910.567000</v>
+        <v>910.56700000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-175.945000</v>
+        <v>-175.94499999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>38719.240382</v>
+        <v>38719.240382000004</v>
       </c>
       <c r="G17" s="1">
         <v>10.755345</v>
       </c>
       <c r="H17" s="1">
-        <v>924.515000</v>
+        <v>924.51499999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-150.529000</v>
+        <v>-150.529</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>38729.953969</v>
+        <v>38729.953969000002</v>
       </c>
       <c r="L17" s="1">
         <v>10.758321</v>
       </c>
       <c r="M17" s="1">
-        <v>944.637000</v>
+        <v>944.63699999999994</v>
       </c>
       <c r="N17" s="1">
-        <v>-111.536000</v>
+        <v>-111.536</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>38740.190938</v>
       </c>
       <c r="Q17" s="1">
-        <v>10.761164</v>
+        <v>10.761164000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>951.556000</v>
+        <v>951.55600000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-99.044200</v>
+        <v>-99.044200000000004</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>38750.364872</v>
+        <v>38750.364871999998</v>
       </c>
       <c r="V17" s="1">
-        <v>10.763990</v>
+        <v>10.76399</v>
       </c>
       <c r="W17" s="1">
-        <v>958.878000</v>
+        <v>958.87800000000004</v>
       </c>
       <c r="X17" s="1">
-        <v>-87.540300</v>
+        <v>-87.540300000000002</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>38761.267926</v>
       </c>
       <c r="AA17" s="1">
-        <v>10.767019</v>
+        <v>10.767018999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>967.369000</v>
+        <v>967.36900000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.773200</v>
+        <v>-79.773200000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>38771.762746</v>
       </c>
       <c r="AF17" s="1">
-        <v>10.769934</v>
+        <v>10.769933999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>972.989000</v>
+        <v>972.98900000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.850300</v>
+        <v>-79.850300000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>38782.312651</v>
       </c>
       <c r="AK17" s="1">
-        <v>10.772865</v>
+        <v>10.772864999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>981.506000</v>
+        <v>981.50599999999997</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.969400</v>
+        <v>-87.969399999999993</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>38793.159698</v>
+        <v>38793.159698000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>10.775878</v>
+        <v>10.775878000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>990.981000</v>
+        <v>990.98099999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.047000</v>
+        <v>-103.047</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>38804.302815</v>
+        <v>38804.302815000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>10.778973</v>
+        <v>10.778973000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1002.470000</v>
+        <v>1002.47</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.709000</v>
+        <v>-124.709</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>38816.027710</v>
+        <v>38816.027710000002</v>
       </c>
       <c r="AZ17" s="1">
-        <v>10.782230</v>
+        <v>10.78223</v>
       </c>
       <c r="BA17" s="1">
-        <v>1012.120000</v>
+        <v>1012.12</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.553000</v>
+        <v>-143.553</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>38827.001723</v>
+        <v>38827.001723000001</v>
       </c>
       <c r="BE17" s="1">
         <v>10.785278</v>
       </c>
       <c r="BF17" s="1">
-        <v>1057.300000</v>
+        <v>1057.3</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.076000</v>
+        <v>-229.07599999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>38838.242564</v>
@@ -4516,13 +4932,13 @@
         <v>10.788401</v>
       </c>
       <c r="BK17" s="1">
-        <v>1136.620000</v>
+        <v>1136.6199999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-366.854000</v>
+        <v>-366.85399999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>38848.955123</v>
@@ -4531,679 +4947,679 @@
         <v>10.791376</v>
       </c>
       <c r="BP17" s="1">
-        <v>1268.360000</v>
+        <v>1268.3599999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-580.553000</v>
+        <v>-580.553</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>38859.412774</v>
+        <v>38859.412773999997</v>
       </c>
       <c r="BT17" s="1">
         <v>10.794281</v>
       </c>
       <c r="BU17" s="1">
-        <v>1416.880000</v>
+        <v>1416.88</v>
       </c>
       <c r="BV17" s="1">
-        <v>-808.997000</v>
+        <v>-808.99699999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>38870.272212</v>
+        <v>38870.272212000003</v>
       </c>
       <c r="BY17" s="1">
         <v>10.797298</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1580.430000</v>
+        <v>1580.43</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1048.670000</v>
+        <v>-1048.67</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>38882.769382</v>
+        <v>38882.769381999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>10.800769</v>
+        <v>10.800769000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1996.370000</v>
+        <v>1996.37</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1608.020000</v>
+        <v>-1608.02</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>38709.462749</v>
+        <v>38709.462748999998</v>
       </c>
       <c r="B18" s="1">
-        <v>10.752629</v>
+        <v>10.752629000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>910.825000</v>
+        <v>910.82500000000005</v>
       </c>
       <c r="D18" s="1">
-        <v>-175.797000</v>
+        <v>-175.797</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>38719.597006</v>
+        <v>38719.597006000004</v>
       </c>
       <c r="G18" s="1">
-        <v>10.755444</v>
+        <v>10.755444000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>923.922000</v>
+        <v>923.92200000000003</v>
       </c>
       <c r="I18" s="1">
-        <v>-150.233000</v>
+        <v>-150.233</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>38730.301664</v>
+        <v>38730.301663999999</v>
       </c>
       <c r="L18" s="1">
         <v>10.758417</v>
       </c>
       <c r="M18" s="1">
-        <v>944.833000</v>
+        <v>944.83299999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-111.604000</v>
+        <v>-111.604</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>38740.539092</v>
+        <v>38740.539091999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>10.761261</v>
+        <v>10.761260999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>951.503000</v>
+        <v>951.50300000000004</v>
       </c>
       <c r="S18" s="1">
-        <v>-99.026600</v>
+        <v>-99.026600000000002</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>38751.049812</v>
+        <v>38751.049811999997</v>
       </c>
       <c r="V18" s="1">
-        <v>10.764181</v>
+        <v>10.764181000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>958.906000</v>
+        <v>958.90599999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-87.591000</v>
+        <v>-87.590999999999994</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>38761.617080</v>
+        <v>38761.617080000004</v>
       </c>
       <c r="AA18" s="1">
         <v>10.767116</v>
       </c>
       <c r="AB18" s="1">
-        <v>967.349000</v>
+        <v>967.34900000000005</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.856100</v>
+        <v>-79.856099999999998</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>38772.106970</v>
+        <v>38772.106970000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>10.770030</v>
+        <v>10.77003</v>
       </c>
       <c r="AG18" s="1">
-        <v>973.009000</v>
+        <v>973.00900000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.885300</v>
+        <v>-79.885300000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>38782.659370</v>
+        <v>38782.659370000001</v>
       </c>
       <c r="AK18" s="1">
         <v>10.772961</v>
       </c>
       <c r="AL18" s="1">
-        <v>981.525000</v>
+        <v>981.52499999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.952400</v>
+        <v>-87.952399999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>38793.520284</v>
+        <v>38793.520283999998</v>
       </c>
       <c r="AP18" s="1">
         <v>10.775978</v>
       </c>
       <c r="AQ18" s="1">
-        <v>990.995000</v>
+        <v>990.995</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.049000</v>
+        <v>-103.04900000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>38804.981309</v>
+        <v>38804.981309000003</v>
       </c>
       <c r="AU18" s="1">
         <v>10.779161</v>
       </c>
       <c r="AV18" s="1">
-        <v>1002.450000</v>
+        <v>1002.45</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.715000</v>
+        <v>-124.715</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>38816.467203</v>
       </c>
       <c r="AZ18" s="1">
-        <v>10.782352</v>
+        <v>10.782351999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1012.130000</v>
+        <v>1012.13</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.569000</v>
+        <v>-143.56899999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>38827.445158</v>
+        <v>38827.445158000002</v>
       </c>
       <c r="BE18" s="1">
         <v>10.785401</v>
       </c>
       <c r="BF18" s="1">
-        <v>1057.330000</v>
+        <v>1057.33</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.103000</v>
+        <v>-229.10300000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>38838.618529</v>
+        <v>38838.618528999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>10.788505</v>
+        <v>10.788505000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1136.620000</v>
+        <v>1136.6199999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-366.831000</v>
+        <v>-366.83100000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>38849.359368</v>
+        <v>38849.359367999998</v>
       </c>
       <c r="BO18" s="1">
         <v>10.791489</v>
       </c>
       <c r="BP18" s="1">
-        <v>1268.280000</v>
+        <v>1268.28</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-580.508000</v>
+        <v>-580.50800000000004</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>38859.839860</v>
+        <v>38859.83986</v>
       </c>
       <c r="BT18" s="1">
-        <v>10.794400</v>
+        <v>10.7944</v>
       </c>
       <c r="BU18" s="1">
-        <v>1417.040000</v>
+        <v>1417.04</v>
       </c>
       <c r="BV18" s="1">
-        <v>-809.153000</v>
+        <v>-809.15300000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>38870.728008</v>
+        <v>38870.728007999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>10.797424</v>
+        <v>10.797423999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1580.430000</v>
+        <v>1580.43</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1048.620000</v>
+        <v>-1048.6199999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>38883.319968</v>
+        <v>38883.319968000003</v>
       </c>
       <c r="CD18" s="1">
         <v>10.800922</v>
       </c>
       <c r="CE18" s="1">
-        <v>1995.440000</v>
+        <v>1995.44</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1609.450000</v>
+        <v>-1609.45</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>38709.805483</v>
+        <v>38709.805482999996</v>
       </c>
       <c r="B19" s="1">
-        <v>10.752724</v>
+        <v>10.752724000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>910.639000</v>
+        <v>910.63900000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-175.798000</v>
+        <v>-175.798</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>38719.940734</v>
+        <v>38719.940734000003</v>
       </c>
       <c r="G19" s="1">
-        <v>10.755539</v>
+        <v>10.755539000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>924.211000</v>
+        <v>924.21100000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-150.201000</v>
+        <v>-150.20099999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>38730.992127</v>
+        <v>38730.992126999998</v>
       </c>
       <c r="L19" s="1">
         <v>10.758609</v>
       </c>
       <c r="M19" s="1">
-        <v>944.689000</v>
+        <v>944.68899999999996</v>
       </c>
       <c r="N19" s="1">
-        <v>-111.631000</v>
+        <v>-111.631</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>38741.237954</v>
+        <v>38741.237953999997</v>
       </c>
       <c r="Q19" s="1">
         <v>10.761455</v>
       </c>
       <c r="R19" s="1">
-        <v>951.482000</v>
+        <v>951.48199999999997</v>
       </c>
       <c r="S19" s="1">
-        <v>-99.003800</v>
+        <v>-99.003799999999998</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>38751.396530</v>
+        <v>38751.396529999998</v>
       </c>
       <c r="V19" s="1">
         <v>10.764277</v>
       </c>
       <c r="W19" s="1">
-        <v>958.851000</v>
+        <v>958.851</v>
       </c>
       <c r="X19" s="1">
-        <v>-87.568700</v>
+        <v>-87.568700000000007</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>38761.966294</v>
+        <v>38761.966293999998</v>
       </c>
       <c r="AA19" s="1">
         <v>10.767213</v>
       </c>
       <c r="AB19" s="1">
-        <v>967.411000</v>
+        <v>967.41099999999994</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.801100</v>
+        <v>-79.801100000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>38772.449737</v>
+        <v>38772.449737000003</v>
       </c>
       <c r="AF19" s="1">
         <v>10.770125</v>
       </c>
       <c r="AG19" s="1">
-        <v>973.019000</v>
+        <v>973.01900000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.899500</v>
+        <v>-79.899500000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>38783.324490</v>
+        <v>38783.324489999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>10.773146</v>
+        <v>10.773146000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>981.524000</v>
+        <v>981.524</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.945800</v>
+        <v>-87.945800000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>38794.219652</v>
       </c>
       <c r="AP19" s="1">
-        <v>10.776172</v>
+        <v>10.776172000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>990.971000</v>
+        <v>990.971</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.042000</v>
+        <v>-103.042</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>38805.428738</v>
+        <v>38805.428738000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>10.779286</v>
+        <v>10.779286000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1002.480000</v>
+        <v>1002.48</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.712000</v>
+        <v>-124.712</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>38816.825277</v>
+        <v>38816.825277000004</v>
       </c>
       <c r="AZ19" s="1">
         <v>10.782451</v>
       </c>
       <c r="BA19" s="1">
-        <v>1012.120000</v>
+        <v>1012.12</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.582000</v>
+        <v>-143.58199999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>38827.809219</v>
+        <v>38827.809219000002</v>
       </c>
       <c r="BE19" s="1">
         <v>10.785503</v>
       </c>
       <c r="BF19" s="1">
-        <v>1057.350000</v>
+        <v>1057.3499999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.096000</v>
+        <v>-229.096</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>38838.992977</v>
+        <v>38838.992977000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>10.788609</v>
+        <v>10.788608999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1136.690000</v>
+        <v>1136.69</v>
       </c>
       <c r="BL19" s="1">
-        <v>-366.859000</v>
+        <v>-366.85899999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>38849.779474</v>
+        <v>38849.779474000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>10.791605</v>
+        <v>10.791605000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1268.350000</v>
+        <v>1268.3499999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-580.516000</v>
+        <v>-580.51599999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>38860.266885</v>
+        <v>38860.266884999997</v>
       </c>
       <c r="BT19" s="1">
-        <v>10.794519</v>
+        <v>10.794518999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1417.110000</v>
+        <v>1417.11</v>
       </c>
       <c r="BV19" s="1">
-        <v>-809.220000</v>
+        <v>-809.22</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>38871.177382</v>
+        <v>38871.177382000002</v>
       </c>
       <c r="BY19" s="1">
         <v>10.797549</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1580.430000</v>
+        <v>1580.43</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1048.550000</v>
+        <v>-1048.55</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>38883.902773</v>
+        <v>38883.902773000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>10.801084</v>
+        <v>10.801083999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1996.610000</v>
+        <v>1996.61</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1607.890000</v>
+        <v>-1607.89</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>38710.478059</v>
+        <v>38710.478059000001</v>
       </c>
       <c r="B20" s="1">
-        <v>10.752911</v>
+        <v>10.752910999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>910.703000</v>
+        <v>910.70299999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-176.036000</v>
+        <v>-176.036</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>38720.628686</v>
+        <v>38720.628685999996</v>
       </c>
       <c r="G20" s="1">
-        <v>10.755730</v>
+        <v>10.75573</v>
       </c>
       <c r="H20" s="1">
-        <v>924.470000</v>
+        <v>924.47</v>
       </c>
       <c r="I20" s="1">
-        <v>-150.472000</v>
+        <v>-150.47200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>38731.337322</v>
+        <v>38731.337321999999</v>
       </c>
       <c r="L20" s="1">
-        <v>10.758705</v>
+        <v>10.758705000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>944.481000</v>
+        <v>944.48099999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-111.518000</v>
+        <v>-111.518</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>38741.586146</v>
+        <v>38741.586146000001</v>
       </c>
       <c r="Q20" s="1">
         <v>10.761552</v>
       </c>
       <c r="R20" s="1">
-        <v>951.521000</v>
+        <v>951.52099999999996</v>
       </c>
       <c r="S20" s="1">
-        <v>-99.007200</v>
+        <v>-99.007199999999997</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>38751.737267</v>
+        <v>38751.737266999997</v>
       </c>
       <c r="V20" s="1">
-        <v>10.764371</v>
+        <v>10.764371000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>958.780000</v>
+        <v>958.78</v>
       </c>
       <c r="X20" s="1">
-        <v>-87.551300</v>
+        <v>-87.551299999999998</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>38762.624986</v>
+        <v>38762.624986000003</v>
       </c>
       <c r="AA20" s="1">
         <v>10.767396</v>
       </c>
       <c r="AB20" s="1">
-        <v>967.369000</v>
+        <v>967.36900000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.836200</v>
+        <v>-79.836200000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>38773.103464</v>
       </c>
       <c r="AF20" s="1">
-        <v>10.770307</v>
+        <v>10.770307000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>972.981000</v>
+        <v>972.98099999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.862000</v>
+        <v>-79.861999999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>38783.704457</v>
@@ -5212,151 +5628,151 @@
         <v>10.773251</v>
       </c>
       <c r="AL20" s="1">
-        <v>981.546000</v>
+        <v>981.54600000000005</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.965200</v>
+        <v>-87.965199999999996</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>38794.623851</v>
+        <v>38794.623850999997</v>
       </c>
       <c r="AP20" s="1">
         <v>10.776284</v>
       </c>
       <c r="AQ20" s="1">
-        <v>990.977000</v>
+        <v>990.97699999999998</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.049000</v>
+        <v>-103.04900000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>38805.795244</v>
+        <v>38805.795244000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>10.779388</v>
+        <v>10.779388000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1002.480000</v>
+        <v>1002.48</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.711000</v>
+        <v>-124.711</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>38817.186397</v>
+        <v>38817.186396999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>10.782552</v>
+        <v>10.782552000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1012.130000</v>
+        <v>1012.13</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.572000</v>
+        <v>-143.572</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>38828.172531</v>
+        <v>38828.172530999997</v>
       </c>
       <c r="BE20" s="1">
         <v>10.785603</v>
       </c>
       <c r="BF20" s="1">
-        <v>1057.330000</v>
+        <v>1057.33</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.100000</v>
+        <v>-229.1</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>38839.408623</v>
+        <v>38839.408623000003</v>
       </c>
       <c r="BJ20" s="1">
-        <v>10.788725</v>
+        <v>10.788724999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1136.640000</v>
+        <v>1136.6400000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-366.842000</v>
+        <v>-366.84199999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>38850.165361</v>
+        <v>38850.165360999999</v>
       </c>
       <c r="BO20" s="1">
         <v>10.791713</v>
       </c>
       <c r="BP20" s="1">
-        <v>1268.310000</v>
+        <v>1268.31</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-580.522000</v>
+        <v>-580.52200000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>38860.685011</v>
+        <v>38860.685011000001</v>
       </c>
       <c r="BT20" s="1">
         <v>10.794635</v>
       </c>
       <c r="BU20" s="1">
-        <v>1417.140000</v>
+        <v>1417.14</v>
       </c>
       <c r="BV20" s="1">
-        <v>-809.288000</v>
+        <v>-809.28800000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>38871.599973</v>
+        <v>38871.599972999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>10.797667</v>
+        <v>10.797667000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1580.270000</v>
+        <v>1580.27</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1048.520000</v>
+        <v>-1048.52</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>38884.370468</v>
+        <v>38884.370468000001</v>
       </c>
       <c r="CD20" s="1">
         <v>10.801214</v>
       </c>
       <c r="CE20" s="1">
-        <v>1995.090000</v>
+        <v>1995.09</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1607.100000</v>
+        <v>-1607.1</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>38710.832208</v>
       </c>
@@ -5364,256 +5780,256 @@
         <v>10.753009</v>
       </c>
       <c r="C21" s="1">
-        <v>910.652000</v>
+        <v>910.65200000000004</v>
       </c>
       <c r="D21" s="1">
-        <v>-175.964000</v>
+        <v>-175.964</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>38720.975917</v>
+        <v>38720.975917000003</v>
       </c>
       <c r="G21" s="1">
         <v>10.755827</v>
       </c>
       <c r="H21" s="1">
-        <v>924.344000</v>
+        <v>924.34400000000005</v>
       </c>
       <c r="I21" s="1">
-        <v>-150.367000</v>
+        <v>-150.36699999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>38731.686990</v>
+        <v>38731.686990000002</v>
       </c>
       <c r="L21" s="1">
-        <v>10.758802</v>
+        <v>10.758801999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>944.677000</v>
+        <v>944.67700000000002</v>
       </c>
       <c r="N21" s="1">
-        <v>-111.585000</v>
+        <v>-111.58499999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>38742.249824</v>
+        <v>38742.249823999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>10.761736</v>
+        <v>10.761736000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>951.573000</v>
+        <v>951.57299999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-98.962300</v>
+        <v>-98.962299999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>38752.391491</v>
+        <v>38752.391491000002</v>
       </c>
       <c r="V21" s="1">
-        <v>10.764553</v>
+        <v>10.764552999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>958.850000</v>
+        <v>958.85</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.653200</v>
+        <v>-87.653199999999998</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>38763.009350</v>
+        <v>38763.00935</v>
       </c>
       <c r="AA21" s="1">
         <v>10.767503</v>
       </c>
       <c r="AB21" s="1">
-        <v>967.327000</v>
+        <v>967.327</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.850600</v>
+        <v>-79.8506</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>38773.478407</v>
+        <v>38773.478407000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>10.770411</v>
+        <v>10.770410999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>973.037000</v>
+        <v>973.03700000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.907900</v>
+        <v>-79.907899999999998</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>38784.054106</v>
+        <v>38784.054106000003</v>
       </c>
       <c r="AK21" s="1">
         <v>10.773348</v>
       </c>
       <c r="AL21" s="1">
-        <v>981.519000</v>
+        <v>981.51900000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.984300</v>
+        <v>-87.984300000000005</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>38794.982986</v>
+        <v>38794.982986000003</v>
       </c>
       <c r="AP21" s="1">
         <v>10.776384</v>
       </c>
       <c r="AQ21" s="1">
-        <v>990.959000</v>
+        <v>990.95899999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.040000</v>
+        <v>-103.04</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>38806.158018</v>
+        <v>38806.158018000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>10.779488</v>
+        <v>10.779488000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1002.470000</v>
+        <v>1002.47</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.722000</v>
+        <v>-124.72199999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>38817.599036</v>
       </c>
       <c r="AZ21" s="1">
-        <v>10.782666</v>
+        <v>10.782666000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1012.130000</v>
+        <v>1012.13</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.557000</v>
+        <v>-143.55699999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>38828.601295</v>
       </c>
       <c r="BE21" s="1">
-        <v>10.785723</v>
+        <v>10.785723000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1057.350000</v>
+        <v>1057.3499999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.095000</v>
+        <v>-229.095</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>38839.777153</v>
+        <v>38839.777153000003</v>
       </c>
       <c r="BJ21" s="1">
         <v>10.788827</v>
       </c>
       <c r="BK21" s="1">
-        <v>1136.620000</v>
+        <v>1136.6199999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-366.842000</v>
+        <v>-366.84199999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>38850.581505</v>
+        <v>38850.581505000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>10.791828</v>
+        <v>10.791828000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1268.340000</v>
+        <v>1268.3399999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-580.537000</v>
+        <v>-580.53700000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>38861.111107</v>
+        <v>38861.111106999997</v>
       </c>
       <c r="BT21" s="1">
         <v>10.794753</v>
       </c>
       <c r="BU21" s="1">
-        <v>1417.170000</v>
+        <v>1417.17</v>
       </c>
       <c r="BV21" s="1">
-        <v>-809.487000</v>
+        <v>-809.48699999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>38872.022101</v>
+        <v>38872.022101000002</v>
       </c>
       <c r="BY21" s="1">
         <v>10.797784</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1580.390000</v>
+        <v>1580.39</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1048.650000</v>
+        <v>-1048.6500000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>38884.887795</v>
+        <v>38884.887795000002</v>
       </c>
       <c r="CD21" s="1">
         <v>10.801358</v>
       </c>
       <c r="CE21" s="1">
-        <v>1994.270000</v>
+        <v>1994.27</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1608.340000</v>
+        <v>-1608.34</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>38711.173981</v>
       </c>
@@ -5621,13 +6037,13 @@
         <v>10.753104</v>
       </c>
       <c r="C22" s="1">
-        <v>910.593000</v>
+        <v>910.59299999999996</v>
       </c>
       <c r="D22" s="1">
-        <v>-175.698000</v>
+        <v>-175.69800000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>38721.320109</v>
@@ -5636,420 +6052,420 @@
         <v>10.755922</v>
       </c>
       <c r="H22" s="1">
-        <v>924.574000</v>
+        <v>924.57399999999996</v>
       </c>
       <c r="I22" s="1">
-        <v>-150.131000</v>
+        <v>-150.131</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>38732.344217</v>
+        <v>38732.344216999998</v>
       </c>
       <c r="L22" s="1">
-        <v>10.758985</v>
+        <v>10.758984999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>944.819000</v>
+        <v>944.81899999999996</v>
       </c>
       <c r="N22" s="1">
-        <v>-111.523000</v>
+        <v>-111.523</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>38742.633200</v>
+        <v>38742.633199999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>10.761843</v>
+        <v>10.761843000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>951.535000</v>
+        <v>951.53499999999997</v>
       </c>
       <c r="S22" s="1">
-        <v>-98.993000</v>
+        <v>-98.992999999999995</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>38752.769443</v>
+        <v>38752.769442999997</v>
       </c>
       <c r="V22" s="1">
-        <v>10.764658</v>
+        <v>10.764658000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>958.840000</v>
+        <v>958.84</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.609200</v>
+        <v>-87.609200000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>38763.360052</v>
+        <v>38763.360052000004</v>
       </c>
       <c r="AA22" s="1">
-        <v>10.767600</v>
+        <v>10.7676</v>
       </c>
       <c r="AB22" s="1">
-        <v>967.369000</v>
+        <v>967.36900000000003</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.713100</v>
+        <v>-79.713099999999997</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>38773.821640</v>
+        <v>38773.821640000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>10.770506</v>
+        <v>10.770505999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>973.016000</v>
+        <v>973.01599999999996</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.859200</v>
+        <v>-79.859200000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>38784.403289</v>
+        <v>38784.403289000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>10.773445</v>
+        <v>10.773445000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>981.508000</v>
+        <v>981.50800000000004</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.971600</v>
+        <v>-87.971599999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>38795.390171</v>
+        <v>38795.390170999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>10.776497</v>
+        <v>10.776497000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>990.958000</v>
+        <v>990.95799999999997</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.041000</v>
+        <v>-103.041</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>38806.570529</v>
+        <v>38806.570528999997</v>
       </c>
       <c r="AU22" s="1">
         <v>10.779603</v>
       </c>
       <c r="AV22" s="1">
-        <v>1002.460000</v>
+        <v>1002.46</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.717000</v>
+        <v>-124.717</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>38817.902589</v>
+        <v>38817.902588999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>10.782751</v>
+        <v>10.782750999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1012.110000</v>
+        <v>1012.11</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.569000</v>
+        <v>-143.56899999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>38828.891949</v>
+        <v>38828.891948999997</v>
       </c>
       <c r="BE22" s="1">
         <v>10.785803</v>
       </c>
       <c r="BF22" s="1">
-        <v>1057.340000</v>
+        <v>1057.3399999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.085000</v>
+        <v>-229.08500000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>38840.148686</v>
       </c>
       <c r="BJ22" s="1">
-        <v>10.788930</v>
+        <v>10.788930000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1136.630000</v>
+        <v>1136.6300000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-366.855000</v>
+        <v>-366.85500000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>38850.977840</v>
+        <v>38850.97784</v>
       </c>
       <c r="BO22" s="1">
         <v>10.791938</v>
       </c>
       <c r="BP22" s="1">
-        <v>1268.330000</v>
+        <v>1268.33</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-580.566000</v>
+        <v>-580.56600000000003</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>38861.524275</v>
+        <v>38861.524275000003</v>
       </c>
       <c r="BT22" s="1">
-        <v>10.794868</v>
+        <v>10.794867999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1417.170000</v>
+        <v>1417.17</v>
       </c>
       <c r="BV22" s="1">
-        <v>-809.640000</v>
+        <v>-809.64</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>38872.445653</v>
+        <v>38872.445653000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>10.797902</v>
+        <v>10.797902000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1580.430000</v>
+        <v>1580.43</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1048.630000</v>
+        <v>-1048.6300000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>38885.408100</v>
+        <v>38885.408100000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>10.801502</v>
+        <v>10.801501999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1995.900000</v>
+        <v>1995.9</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1608.920000</v>
+        <v>-1608.92</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>38711.825192</v>
+        <v>38711.825191999997</v>
       </c>
       <c r="B23" s="1">
         <v>10.753285</v>
       </c>
       <c r="C23" s="1">
-        <v>910.471000</v>
+        <v>910.471</v>
       </c>
       <c r="D23" s="1">
-        <v>-175.866000</v>
+        <v>-175.86600000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>38721.973375</v>
+        <v>38721.973375000001</v>
       </c>
       <c r="G23" s="1">
-        <v>10.756104</v>
+        <v>10.756104000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>925.003000</v>
+        <v>925.00300000000004</v>
       </c>
       <c r="I23" s="1">
-        <v>-150.132000</v>
+        <v>-150.13200000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>38732.721149</v>
+        <v>38732.721148999997</v>
       </c>
       <c r="L23" s="1">
-        <v>10.759089</v>
+        <v>10.759088999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>944.722000</v>
+        <v>944.72199999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-111.740000</v>
+        <v>-111.74</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>38742.978415</v>
+        <v>38742.978414999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>10.761938</v>
+        <v>10.761938000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>951.527000</v>
+        <v>951.52700000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>-99.018800</v>
+        <v>-99.018799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>38753.111713</v>
+        <v>38753.111712999998</v>
       </c>
       <c r="V23" s="1">
-        <v>10.764753</v>
+        <v>10.764753000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>958.824000</v>
+        <v>958.82399999999996</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.643000</v>
+        <v>-87.643000000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>38763.706229</v>
+        <v>38763.706229000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>10.767696</v>
+        <v>10.767696000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>967.347000</v>
+        <v>967.34699999999998</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.917100</v>
+        <v>-79.917100000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>38774.167351</v>
+        <v>38774.167350999996</v>
       </c>
       <c r="AF23" s="1">
         <v>10.770602</v>
       </c>
       <c r="AG23" s="1">
-        <v>973.026000</v>
+        <v>973.02599999999995</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.948000</v>
+        <v>-79.947999999999993</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>38784.820425</v>
+        <v>38784.820424999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>10.773561</v>
+        <v>10.773561000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>981.536000</v>
+        <v>981.53599999999994</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.959900</v>
+        <v>-87.959900000000005</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>38795.706121</v>
+        <v>38795.706121000003</v>
       </c>
       <c r="AP23" s="1">
-        <v>10.776585</v>
+        <v>10.776585000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>990.975000</v>
+        <v>990.97500000000002</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.023000</v>
+        <v>-103.023</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>38806.887930</v>
+        <v>38806.887929999997</v>
       </c>
       <c r="AU23" s="1">
         <v>10.779691</v>
       </c>
       <c r="AV23" s="1">
-        <v>1002.480000</v>
+        <v>1002.48</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.710000</v>
+        <v>-124.71</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>38818.259244</v>
+        <v>38818.259244000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>10.782850</v>
+        <v>10.78285</v>
       </c>
       <c r="BA23" s="1">
-        <v>1012.120000</v>
+        <v>1012.12</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.571000</v>
+        <v>-143.571</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>38829.255021</v>
+        <v>38829.255020999997</v>
       </c>
       <c r="BE23" s="1">
         <v>10.785904</v>
       </c>
       <c r="BF23" s="1">
-        <v>1057.330000</v>
+        <v>1057.33</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.079000</v>
+        <v>-229.07900000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>38840.527103</v>
@@ -6058,90 +6474,90 @@
         <v>10.789035</v>
       </c>
       <c r="BK23" s="1">
-        <v>1136.640000</v>
+        <v>1136.6400000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-366.844000</v>
+        <v>-366.84399999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>38851.399407</v>
+        <v>38851.399406999997</v>
       </c>
       <c r="BO23" s="1">
         <v>10.792055</v>
       </c>
       <c r="BP23" s="1">
-        <v>1268.320000</v>
+        <v>1268.32</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-580.543000</v>
+        <v>-580.54300000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>38861.954802</v>
       </c>
       <c r="BT23" s="1">
-        <v>10.794987</v>
+        <v>10.794987000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1417.080000</v>
+        <v>1417.08</v>
       </c>
       <c r="BV23" s="1">
-        <v>-809.777000</v>
+        <v>-809.77700000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>38872.863817</v>
+        <v>38872.863816999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>10.798018</v>
+        <v>10.798018000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1580.370000</v>
+        <v>1580.37</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1048.650000</v>
+        <v>-1048.6500000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>38885.924436</v>
+        <v>38885.924436000001</v>
       </c>
       <c r="CD23" s="1">
         <v>10.801646</v>
       </c>
       <c r="CE23" s="1">
-        <v>1996.140000</v>
+        <v>1996.14</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1607.130000</v>
+        <v>-1607.13</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>38712.200168</v>
+        <v>38712.200168000003</v>
       </c>
       <c r="B24" s="1">
         <v>10.753389</v>
       </c>
       <c r="C24" s="1">
-        <v>910.705000</v>
+        <v>910.70500000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-175.910000</v>
+        <v>-175.91</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>38722.352282</v>
@@ -6150,118 +6566,118 @@
         <v>10.756209</v>
       </c>
       <c r="H24" s="1">
-        <v>924.864000</v>
+        <v>924.86400000000003</v>
       </c>
       <c r="I24" s="1">
-        <v>-150.892000</v>
+        <v>-150.892</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>38733.067388</v>
+        <v>38733.067388000003</v>
       </c>
       <c r="L24" s="1">
         <v>10.759185</v>
       </c>
       <c r="M24" s="1">
-        <v>944.627000</v>
+        <v>944.62699999999995</v>
       </c>
       <c r="N24" s="1">
-        <v>-111.433000</v>
+        <v>-111.43300000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>38743.330245</v>
+        <v>38743.330244999997</v>
       </c>
       <c r="Q24" s="1">
         <v>10.762036</v>
       </c>
       <c r="R24" s="1">
-        <v>951.541000</v>
+        <v>951.54100000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>-98.968300</v>
+        <v>-98.968299999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>38753.455436</v>
+        <v>38753.455435999997</v>
       </c>
       <c r="V24" s="1">
         <v>10.764849</v>
       </c>
       <c r="W24" s="1">
-        <v>958.889000</v>
+        <v>958.88900000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.621900</v>
+        <v>-87.621899999999997</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>38764.124387</v>
+        <v>38764.124387000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>10.767812</v>
+        <v>10.767811999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>967.250000</v>
+        <v>967.25</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.902500</v>
+        <v>-79.902500000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>38774.583495</v>
+        <v>38774.583494999999</v>
       </c>
       <c r="AF24" s="1">
         <v>10.770718</v>
       </c>
       <c r="AG24" s="1">
-        <v>973.042000</v>
+        <v>973.04200000000003</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.898500</v>
+        <v>-79.898499999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>38785.110584</v>
+        <v>38785.110584000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>10.773642</v>
+        <v>10.773642000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>981.552000</v>
+        <v>981.55200000000002</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.969500</v>
+        <v>-87.969499999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>38796.065759</v>
+        <v>38796.065758999997</v>
       </c>
       <c r="AP24" s="1">
-        <v>10.776685</v>
+        <v>10.776685000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>990.956000</v>
+        <v>990.95600000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.055000</v>
+        <v>-103.05500000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>38807.253483</v>
@@ -6270,330 +6686,330 @@
         <v>10.779793</v>
       </c>
       <c r="AV24" s="1">
-        <v>1002.490000</v>
+        <v>1002.49</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.718000</v>
+        <v>-124.718</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>38818.617819</v>
+        <v>38818.617818999999</v>
       </c>
       <c r="AZ24" s="1">
         <v>10.782949</v>
       </c>
       <c r="BA24" s="1">
-        <v>1012.120000</v>
+        <v>1012.12</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.562000</v>
+        <v>-143.56200000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>38829.614657</v>
+        <v>38829.614656999998</v>
       </c>
       <c r="BE24" s="1">
         <v>10.786004</v>
       </c>
       <c r="BF24" s="1">
-        <v>1057.330000</v>
+        <v>1057.33</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.083000</v>
+        <v>-229.083</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>38841.296893</v>
+        <v>38841.296892999999</v>
       </c>
       <c r="BJ24" s="1">
         <v>10.789249</v>
       </c>
       <c r="BK24" s="1">
-        <v>1136.630000</v>
+        <v>1136.6300000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-366.849000</v>
+        <v>-366.84899999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>38851.799220</v>
+        <v>38851.799220000001</v>
       </c>
       <c r="BO24" s="1">
         <v>10.792166</v>
       </c>
       <c r="BP24" s="1">
-        <v>1268.300000</v>
+        <v>1268.3</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-580.529000</v>
+        <v>-580.529</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>38862.381825</v>
+        <v>38862.381824999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>10.795106</v>
+        <v>10.795106000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1416.920000</v>
+        <v>1416.92</v>
       </c>
       <c r="BV24" s="1">
-        <v>-809.903000</v>
+        <v>-809.90300000000002</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>38873.318612</v>
+        <v>38873.318612000003</v>
       </c>
       <c r="BY24" s="1">
-        <v>10.798144</v>
+        <v>10.798144000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1580.390000</v>
+        <v>1580.39</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1048.700000</v>
+        <v>-1048.7</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>38886.755729</v>
+        <v>38886.755728999997</v>
       </c>
       <c r="CD24" s="1">
-        <v>10.801877</v>
+        <v>10.801876999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1994.190000</v>
+        <v>1994.19</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1606.990000</v>
+        <v>-1606.99</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>38712.545879</v>
+        <v>38712.545878999998</v>
       </c>
       <c r="B25" s="1">
         <v>10.753485</v>
       </c>
       <c r="C25" s="1">
-        <v>910.686000</v>
+        <v>910.68600000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>-175.866000</v>
+        <v>-175.86600000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>38722.802186</v>
+        <v>38722.802186000001</v>
       </c>
       <c r="G25" s="1">
-        <v>10.756334</v>
+        <v>10.756334000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>924.195000</v>
+        <v>924.19500000000005</v>
       </c>
       <c r="I25" s="1">
-        <v>-150.579000</v>
+        <v>-150.57900000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>38733.414459</v>
       </c>
       <c r="L25" s="1">
-        <v>10.759282</v>
+        <v>10.759282000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>944.806000</v>
+        <v>944.80600000000004</v>
       </c>
       <c r="N25" s="1">
-        <v>-111.555000</v>
+        <v>-111.55500000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>38743.749696</v>
+        <v>38743.749695999999</v>
       </c>
       <c r="Q25" s="1">
         <v>10.762153</v>
       </c>
       <c r="R25" s="1">
-        <v>951.525000</v>
+        <v>951.52499999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-98.942900</v>
+        <v>-98.942899999999995</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>38753.875061</v>
+        <v>38753.875060999999</v>
       </c>
       <c r="V25" s="1">
         <v>10.764965</v>
       </c>
       <c r="W25" s="1">
-        <v>958.821000</v>
+        <v>958.82100000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.598800</v>
+        <v>-87.598799999999997</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>38764.419475</v>
+        <v>38764.419475000002</v>
       </c>
       <c r="AA25" s="1">
         <v>10.767894</v>
       </c>
       <c r="AB25" s="1">
-        <v>967.412000</v>
+        <v>967.41200000000003</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.803600</v>
+        <v>-79.803600000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>38774.878118</v>
+        <v>38774.878118000001</v>
       </c>
       <c r="AF25" s="1">
         <v>10.770799</v>
       </c>
       <c r="AG25" s="1">
-        <v>973.007000</v>
+        <v>973.00699999999995</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.862100</v>
+        <v>-79.862099999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>38785.457319</v>
+        <v>38785.457319000001</v>
       </c>
       <c r="AK25" s="1">
         <v>10.773738</v>
       </c>
       <c r="AL25" s="1">
-        <v>981.525000</v>
+        <v>981.52499999999998</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.968300</v>
+        <v>-87.968299999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>38796.426810</v>
+        <v>38796.426809999997</v>
       </c>
       <c r="AP25" s="1">
         <v>10.776785</v>
       </c>
       <c r="AQ25" s="1">
-        <v>990.985000</v>
+        <v>990.98500000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.055000</v>
+        <v>-103.05500000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>38807.616585</v>
+        <v>38807.616585000003</v>
       </c>
       <c r="AU25" s="1">
         <v>10.779893</v>
       </c>
       <c r="AV25" s="1">
-        <v>1002.480000</v>
+        <v>1002.48</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.697000</v>
+        <v>-124.697</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>38819.336027</v>
+        <v>38819.336026999998</v>
       </c>
       <c r="AZ25" s="1">
         <v>10.783149</v>
       </c>
       <c r="BA25" s="1">
-        <v>1012.120000</v>
+        <v>1012.12</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.592000</v>
+        <v>-143.59200000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>38830.350684</v>
+        <v>38830.350683999997</v>
       </c>
       <c r="BE25" s="1">
-        <v>10.786209</v>
+        <v>10.786208999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1057.310000</v>
+        <v>1057.31</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.084000</v>
+        <v>-229.084</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>38841.675341</v>
+        <v>38841.675341000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>10.789354</v>
+        <v>10.789353999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1136.630000</v>
+        <v>1136.6300000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-366.812000</v>
+        <v>-366.81200000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>38852.223297</v>
+        <v>38852.223296999997</v>
       </c>
       <c r="BO25" s="1">
         <v>10.792284</v>
       </c>
       <c r="BP25" s="1">
-        <v>1268.330000</v>
+        <v>1268.33</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-580.542000</v>
+        <v>-580.54200000000003</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>38862.795521</v>
@@ -6602,105 +7018,105 @@
         <v>10.795221</v>
       </c>
       <c r="BU25" s="1">
-        <v>1416.840000</v>
+        <v>1416.84</v>
       </c>
       <c r="BV25" s="1">
-        <v>-809.960000</v>
+        <v>-809.96</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>38874.076993</v>
+        <v>38874.076993000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>10.798355</v>
+        <v>10.798355000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1580.350000</v>
+        <v>1580.35</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1048.810000</v>
+        <v>-1048.81</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>38886.958129</v>
+        <v>38886.958128999999</v>
       </c>
       <c r="CD25" s="1">
         <v>10.801933</v>
       </c>
       <c r="CE25" s="1">
-        <v>1994.180000</v>
+        <v>1994.18</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1608.700000</v>
+        <v>-1608.7</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>38712.883655</v>
+        <v>38712.883654999998</v>
       </c>
       <c r="B26" s="1">
         <v>10.753579</v>
       </c>
       <c r="C26" s="1">
-        <v>910.651000</v>
+        <v>910.65099999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>-175.803000</v>
+        <v>-175.803</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>38723.254010</v>
+        <v>38723.254009999997</v>
       </c>
       <c r="G26" s="1">
         <v>10.756459</v>
       </c>
       <c r="H26" s="1">
-        <v>923.643000</v>
+        <v>923.64300000000003</v>
       </c>
       <c r="I26" s="1">
-        <v>-150.841000</v>
+        <v>-150.84100000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>38733.826731</v>
+        <v>38733.826731000001</v>
       </c>
       <c r="L26" s="1">
-        <v>10.759396</v>
+        <v>10.759396000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>944.514000</v>
+        <v>944.51400000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-111.372000</v>
+        <v>-111.372</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>38744.024504</v>
+        <v>38744.024504000001</v>
       </c>
       <c r="Q26" s="1">
         <v>10.762229</v>
       </c>
       <c r="R26" s="1">
-        <v>951.526000</v>
+        <v>951.52599999999995</v>
       </c>
       <c r="S26" s="1">
-        <v>-98.940700</v>
+        <v>-98.940700000000007</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>38754.164718</v>
@@ -6709,195 +7125,196 @@
         <v>10.765046</v>
       </c>
       <c r="W26" s="1">
-        <v>958.852000</v>
+        <v>958.85199999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.524500</v>
+        <v>-87.524500000000003</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>38764.770147</v>
+        <v>38764.770147000003</v>
       </c>
       <c r="AA26" s="1">
         <v>10.767992</v>
       </c>
       <c r="AB26" s="1">
-        <v>967.383000</v>
+        <v>967.38300000000004</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.678800</v>
+        <v>-79.678799999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>38775.220854</v>
+        <v>38775.220853999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>10.770895</v>
+        <v>10.770894999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>973.005000</v>
+        <v>973.005</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.913900</v>
+        <v>-79.913899999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>38785.806007</v>
+        <v>38785.806006999999</v>
       </c>
       <c r="AK26" s="1">
         <v>10.773835</v>
       </c>
       <c r="AL26" s="1">
-        <v>981.546000</v>
+        <v>981.54600000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.983800</v>
+        <v>-87.983800000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>38797.153447</v>
+        <v>38797.153446999997</v>
       </c>
       <c r="AP26" s="1">
         <v>10.776987</v>
       </c>
       <c r="AQ26" s="1">
-        <v>990.979000</v>
+        <v>990.97900000000004</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.032000</v>
+        <v>-103.032</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>38808.346666</v>
+        <v>38808.346665999998</v>
       </c>
       <c r="AU26" s="1">
         <v>10.780096</v>
       </c>
       <c r="AV26" s="1">
-        <v>1002.470000</v>
+        <v>1002.47</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.712000</v>
+        <v>-124.712</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>38819.694633</v>
+        <v>38819.694632999999</v>
       </c>
       <c r="AZ26" s="1">
         <v>10.783249</v>
       </c>
       <c r="BA26" s="1">
-        <v>1012.120000</v>
+        <v>1012.12</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.567000</v>
+        <v>-143.56700000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>38830.699371</v>
+        <v>38830.699371000002</v>
       </c>
       <c r="BE26" s="1">
         <v>10.786305</v>
       </c>
       <c r="BF26" s="1">
-        <v>1057.310000</v>
+        <v>1057.31</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.091000</v>
+        <v>-229.09100000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>38842.048332</v>
+        <v>38842.048331999998</v>
       </c>
       <c r="BJ26" s="1">
         <v>10.789458</v>
       </c>
       <c r="BK26" s="1">
-        <v>1136.650000</v>
+        <v>1136.6500000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-366.852000</v>
+        <v>-366.85199999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>38852.927583</v>
+        <v>38852.927582999997</v>
       </c>
       <c r="BO26" s="1">
-        <v>10.792480</v>
+        <v>10.792479999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1268.320000</v>
+        <v>1268.32</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-580.525000</v>
+        <v>-580.52499999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>38863.535024</v>
+        <v>38863.535023999997</v>
       </c>
       <c r="BT26" s="1">
-        <v>10.795426</v>
+        <v>10.795426000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1416.590000</v>
+        <v>1416.59</v>
       </c>
       <c r="BV26" s="1">
-        <v>-809.781000</v>
+        <v>-809.78099999999995</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>38874.200498</v>
+        <v>38874.200497999998</v>
       </c>
       <c r="BY26" s="1">
         <v>10.798389</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1580.420000</v>
+        <v>1580.42</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1048.620000</v>
+        <v>-1048.6199999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>38887.476912</v>
+        <v>38887.476911999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>10.802077</v>
+        <v>10.802077000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1994.170000</v>
+        <v>1994.17</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1608.350000</v>
+        <v>-1608.35</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>